--- a/TARJETA DE LIQUIDACION chacabamba/TARJETAS-MICROCUENCA CHACABAMBAd/TARJETA-2013.xlsx
+++ b/TARJETA DE LIQUIDACION chacabamba/TARJETAS-MICROCUENCA CHACABAMBAd/TARJETA-2013.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUPERVISION2020\CONSOLIDADO\MICROCUENCA CHACABAMBA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUPERVISION2020\TARJETA DE LIQUIDACION chacabamba\TARJETAS-MICROCUENCA CHACABAMBAd\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,11 +18,11 @@
     <sheet name="EQUIPAMIENTO" sheetId="5" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Ex. Tecnico-2013'!$H$13:$I$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Ex. Tecnico-2013'!$H$12:$I$71</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MODELO!$B$13:$D$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'ACTIVOS FIJOS'!$B$1:$N$81</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">EQUIPAMIENTO!$B$1:$N$182</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Ex. Tecnico-2013'!$A$1:$I$64</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Ex. Tecnico-2013'!$A$1:$I$72</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -558,7 +558,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="230">
   <si>
     <t>TARJETA DE LIQUIDACION FINANCIERA</t>
   </si>
@@ -1167,15 +1167,6 @@
     <t>2.6.8.1.3.1</t>
   </si>
   <si>
-    <t>:  2.234102</t>
-  </si>
-  <si>
-    <t>:  6.000027</t>
-  </si>
-  <si>
-    <t>: 0367 - 2013</t>
-  </si>
-  <si>
     <t>Victor Hugo Roman Segovia - Planilla del Personal Obrero y/o Contratado,   Pago Correspondiente al Mes de setiembre.</t>
   </si>
   <si>
@@ -1249,6 +1240,15 @@
   </si>
   <si>
     <t>ESPECIFICA</t>
+  </si>
+  <si>
+    <t>2.234102 RECUPERACION Y MEJORAMIENTO DE LA COBERTURA FORESTAL PARA AMPLIAR SERVICIOS AMBIENTALES EN LAS MICROCUENCAS CHACABAMBA, CHUMBAO Y RIO BLANCO AHUAYRO DE LA PROVINCIA DE CHINCHEROS - REGION APURIMAC</t>
+  </si>
+  <si>
+    <t>RECUPERACION Y MEJORAMIENTO DE LA COBERTURA FORESTAL PARA AMPLIAR SERVICIOS AMBIENTALES EN LAS MICROCUENCAS CHACABAMBA, CHUMBAO Y RIO BLANCO AHUAYRO DE LA PROVINCIA DE CHINCHEROS - REGION APURIMAC</t>
+  </si>
+  <si>
+    <t>RECURSOS ORDINARIOS</t>
   </si>
 </sst>
 </file>
@@ -1256,7 +1256,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.00;[Red]#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00;[Red]#,##0.00"/>
   </numFmts>
   <fonts count="34" x14ac:knownFonts="1">
     <font>
@@ -1494,7 +1494,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1881,17 +1881,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -1899,12 +1888,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1946,7 +1953,7 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1955,13 +1962,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1985,10 +1992,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2085,7 +2092,7 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="3" borderId="18" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="3" borderId="18" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="21" fillId="3" borderId="18" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2109,7 +2116,7 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="3" borderId="6" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="3" borderId="6" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="21" fillId="3" borderId="6" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2133,7 +2140,7 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="3" borderId="21" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="3" borderId="21" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="21" fillId="3" borderId="21" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2232,10 +2239,10 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2252,9 +2259,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2311,9 +2315,6 @@
     <xf numFmtId="49" fontId="32" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="17" fontId="32" fillId="0" borderId="28" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2332,10 +2333,7 @@
     <xf numFmtId="2" fontId="33" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -2345,14 +2343,38 @@
     <xf numFmtId="2" fontId="32" fillId="0" borderId="27" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="32" fillId="0" borderId="31" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="32" fillId="0" borderId="30" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2360,6 +2382,21 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2369,48 +2406,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="33" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2426,6 +2421,45 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="22" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2433,47 +2467,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="22" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2492,8 +2490,27 @@
     <xf numFmtId="4" fontId="22" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2822,42 +2839,42 @@
   <sheetData>
     <row r="1" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="153"/>
+      <c r="A2" s="158" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="158"/>
+      <c r="K2" s="158"/>
+      <c r="L2" s="158"/>
+      <c r="M2" s="158"/>
+      <c r="N2" s="158"/>
+      <c r="O2" s="158"/>
     </row>
     <row r="3" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="154" t="s">
+      <c r="A3" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="154"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="154"/>
-      <c r="M3" s="154"/>
-      <c r="N3" s="154"/>
-      <c r="O3" s="154"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="159"/>
+      <c r="O3" s="159"/>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -2877,23 +2894,23 @@
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="171" t="s">
+      <c r="A5" s="149" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="171"/>
-      <c r="C5" s="171"/>
-      <c r="D5" s="171"/>
-      <c r="E5" s="171"/>
-      <c r="F5" s="171"/>
-      <c r="G5" s="171"/>
-      <c r="H5" s="171"/>
-      <c r="I5" s="171"/>
-      <c r="J5" s="171"/>
-      <c r="K5" s="171"/>
-      <c r="L5" s="171"/>
-      <c r="M5" s="171"/>
-      <c r="N5" s="171"/>
-      <c r="O5" s="171"/>
+      <c r="B5" s="149"/>
+      <c r="C5" s="149"/>
+      <c r="D5" s="149"/>
+      <c r="E5" s="149"/>
+      <c r="F5" s="149"/>
+      <c r="G5" s="149"/>
+      <c r="H5" s="149"/>
+      <c r="I5" s="149"/>
+      <c r="J5" s="149"/>
+      <c r="K5" s="149"/>
+      <c r="L5" s="149"/>
+      <c r="M5" s="149"/>
+      <c r="N5" s="149"/>
+      <c r="O5" s="149"/>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -3016,38 +3033,38 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="161" t="s">
+      <c r="A12" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="163" t="s">
+      <c r="B12" s="161" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="163"/>
-      <c r="D12" s="163"/>
-      <c r="E12" s="164" t="s">
+      <c r="C12" s="161"/>
+      <c r="D12" s="161"/>
+      <c r="E12" s="162" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="164" t="s">
+      <c r="F12" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="166" t="s">
+      <c r="G12" s="153" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="168" t="s">
+      <c r="H12" s="150" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="169"/>
-      <c r="J12" s="169"/>
-      <c r="K12" s="169"/>
-      <c r="L12" s="169"/>
-      <c r="M12" s="169"/>
-      <c r="N12" s="170"/>
-      <c r="O12" s="166" t="s">
+      <c r="I12" s="151"/>
+      <c r="J12" s="151"/>
+      <c r="K12" s="151"/>
+      <c r="L12" s="151"/>
+      <c r="M12" s="151"/>
+      <c r="N12" s="152"/>
+      <c r="O12" s="153" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="162"/>
+      <c r="A13" s="154"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -3057,9 +3074,9 @@
       <c r="D13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="165"/>
-      <c r="F13" s="167"/>
-      <c r="G13" s="162"/>
+      <c r="E13" s="163"/>
+      <c r="F13" s="164"/>
+      <c r="G13" s="154"/>
       <c r="H13" s="2" t="s">
         <v>22</v>
       </c>
@@ -3081,7 +3098,7 @@
       <c r="N13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O13" s="162"/>
+      <c r="O13" s="154"/>
     </row>
     <row r="14" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="113" t="s">
@@ -3652,14 +3669,14 @@
       </c>
     </row>
     <row r="32" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="158" t="s">
+      <c r="A32" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="159"/>
-      <c r="C32" s="159"/>
-      <c r="D32" s="159"/>
-      <c r="E32" s="159"/>
-      <c r="F32" s="160"/>
+      <c r="B32" s="156"/>
+      <c r="C32" s="156"/>
+      <c r="D32" s="156"/>
+      <c r="E32" s="156"/>
+      <c r="F32" s="157"/>
       <c r="G32" s="29">
         <f>SUM(G14:G31)</f>
         <v>3930</v>
@@ -3692,42 +3709,42 @@
       <c r="O34" s="1"/>
     </row>
     <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="153"/>
-      <c r="C35" s="153"/>
-      <c r="D35" s="153"/>
-      <c r="E35" s="153"/>
-      <c r="F35" s="153"/>
-      <c r="G35" s="153"/>
-      <c r="H35" s="153"/>
-      <c r="I35" s="153"/>
-      <c r="J35" s="153"/>
-      <c r="K35" s="153"/>
-      <c r="L35" s="153"/>
-      <c r="M35" s="153"/>
-      <c r="N35" s="153"/>
-      <c r="O35" s="153"/>
+      <c r="A35" s="158" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="158"/>
+      <c r="C35" s="158"/>
+      <c r="D35" s="158"/>
+      <c r="E35" s="158"/>
+      <c r="F35" s="158"/>
+      <c r="G35" s="158"/>
+      <c r="H35" s="158"/>
+      <c r="I35" s="158"/>
+      <c r="J35" s="158"/>
+      <c r="K35" s="158"/>
+      <c r="L35" s="158"/>
+      <c r="M35" s="158"/>
+      <c r="N35" s="158"/>
+      <c r="O35" s="158"/>
     </row>
     <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="154" t="s">
+      <c r="A36" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="154"/>
-      <c r="C36" s="154"/>
-      <c r="D36" s="154"/>
-      <c r="E36" s="154"/>
-      <c r="F36" s="154"/>
-      <c r="G36" s="154"/>
-      <c r="H36" s="154"/>
-      <c r="I36" s="154"/>
-      <c r="J36" s="154"/>
-      <c r="K36" s="154"/>
-      <c r="L36" s="154"/>
-      <c r="M36" s="154"/>
-      <c r="N36" s="154"/>
-      <c r="O36" s="154"/>
+      <c r="B36" s="159"/>
+      <c r="C36" s="159"/>
+      <c r="D36" s="159"/>
+      <c r="E36" s="159"/>
+      <c r="F36" s="159"/>
+      <c r="G36" s="159"/>
+      <c r="H36" s="159"/>
+      <c r="I36" s="159"/>
+      <c r="J36" s="159"/>
+      <c r="K36" s="159"/>
+      <c r="L36" s="159"/>
+      <c r="M36" s="159"/>
+      <c r="N36" s="159"/>
+      <c r="O36" s="159"/>
     </row>
     <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
@@ -3850,38 +3867,38 @@
       </c>
     </row>
     <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="161" t="s">
+      <c r="A43" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="163" t="s">
+      <c r="B43" s="161" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="163"/>
-      <c r="D43" s="163"/>
-      <c r="E43" s="164" t="s">
+      <c r="C43" s="161"/>
+      <c r="D43" s="161"/>
+      <c r="E43" s="162" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="164" t="s">
+      <c r="F43" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="G43" s="166" t="s">
+      <c r="G43" s="153" t="s">
         <v>12</v>
       </c>
-      <c r="H43" s="168" t="s">
+      <c r="H43" s="150" t="s">
         <v>20</v>
       </c>
-      <c r="I43" s="169"/>
-      <c r="J43" s="169"/>
-      <c r="K43" s="169"/>
-      <c r="L43" s="169"/>
-      <c r="M43" s="169"/>
-      <c r="N43" s="170"/>
-      <c r="O43" s="166" t="s">
+      <c r="I43" s="151"/>
+      <c r="J43" s="151"/>
+      <c r="K43" s="151"/>
+      <c r="L43" s="151"/>
+      <c r="M43" s="151"/>
+      <c r="N43" s="152"/>
+      <c r="O43" s="153" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="162"/>
+      <c r="A44" s="154"/>
       <c r="B44" s="2" t="s">
         <v>14</v>
       </c>
@@ -3891,9 +3908,9 @@
       <c r="D44" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="165"/>
-      <c r="F44" s="167"/>
-      <c r="G44" s="162"/>
+      <c r="E44" s="163"/>
+      <c r="F44" s="164"/>
+      <c r="G44" s="154"/>
       <c r="H44" s="2" t="s">
         <v>22</v>
       </c>
@@ -3915,17 +3932,17 @@
       <c r="N44" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O44" s="162"/>
+      <c r="O44" s="154"/>
     </row>
     <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="155" t="s">
+      <c r="A45" s="165" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="156"/>
-      <c r="C45" s="156"/>
-      <c r="D45" s="156"/>
-      <c r="E45" s="156"/>
-      <c r="F45" s="157"/>
+      <c r="B45" s="166"/>
+      <c r="C45" s="166"/>
+      <c r="D45" s="166"/>
+      <c r="E45" s="166"/>
+      <c r="F45" s="167"/>
       <c r="G45" s="29">
         <f>G32</f>
         <v>3930</v>
@@ -4380,14 +4397,14 @@
       <c r="O65" s="17"/>
     </row>
     <row r="66" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="158" t="s">
+      <c r="A66" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="B66" s="159"/>
-      <c r="C66" s="159"/>
-      <c r="D66" s="159"/>
-      <c r="E66" s="159"/>
-      <c r="F66" s="160"/>
+      <c r="B66" s="156"/>
+      <c r="C66" s="156"/>
+      <c r="D66" s="156"/>
+      <c r="E66" s="156"/>
+      <c r="F66" s="157"/>
       <c r="G66" s="29">
         <f>SUM(G45:G65)</f>
         <v>3930</v>
@@ -4420,42 +4437,42 @@
       <c r="O68" s="1"/>
     </row>
     <row r="69" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="B69" s="153"/>
-      <c r="C69" s="153"/>
-      <c r="D69" s="153"/>
-      <c r="E69" s="153"/>
-      <c r="F69" s="153"/>
-      <c r="G69" s="153"/>
-      <c r="H69" s="153"/>
-      <c r="I69" s="153"/>
-      <c r="J69" s="153"/>
-      <c r="K69" s="153"/>
-      <c r="L69" s="153"/>
-      <c r="M69" s="153"/>
-      <c r="N69" s="153"/>
-      <c r="O69" s="153"/>
+      <c r="A69" s="158" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="158"/>
+      <c r="C69" s="158"/>
+      <c r="D69" s="158"/>
+      <c r="E69" s="158"/>
+      <c r="F69" s="158"/>
+      <c r="G69" s="158"/>
+      <c r="H69" s="158"/>
+      <c r="I69" s="158"/>
+      <c r="J69" s="158"/>
+      <c r="K69" s="158"/>
+      <c r="L69" s="158"/>
+      <c r="M69" s="158"/>
+      <c r="N69" s="158"/>
+      <c r="O69" s="158"/>
     </row>
     <row r="70" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="154" t="s">
+      <c r="A70" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="154"/>
-      <c r="C70" s="154"/>
-      <c r="D70" s="154"/>
-      <c r="E70" s="154"/>
-      <c r="F70" s="154"/>
-      <c r="G70" s="154"/>
-      <c r="H70" s="154"/>
-      <c r="I70" s="154"/>
-      <c r="J70" s="154"/>
-      <c r="K70" s="154"/>
-      <c r="L70" s="154"/>
-      <c r="M70" s="154"/>
-      <c r="N70" s="154"/>
-      <c r="O70" s="154"/>
+      <c r="B70" s="159"/>
+      <c r="C70" s="159"/>
+      <c r="D70" s="159"/>
+      <c r="E70" s="159"/>
+      <c r="F70" s="159"/>
+      <c r="G70" s="159"/>
+      <c r="H70" s="159"/>
+      <c r="I70" s="159"/>
+      <c r="J70" s="159"/>
+      <c r="K70" s="159"/>
+      <c r="L70" s="159"/>
+      <c r="M70" s="159"/>
+      <c r="N70" s="159"/>
+      <c r="O70" s="159"/>
     </row>
     <row r="71" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
@@ -4578,38 +4595,38 @@
       </c>
     </row>
     <row r="77" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="161" t="s">
+      <c r="A77" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="B77" s="163" t="s">
+      <c r="B77" s="161" t="s">
         <v>9</v>
       </c>
-      <c r="C77" s="163"/>
-      <c r="D77" s="163"/>
-      <c r="E77" s="164" t="s">
+      <c r="C77" s="161"/>
+      <c r="D77" s="161"/>
+      <c r="E77" s="162" t="s">
         <v>10</v>
       </c>
-      <c r="F77" s="164" t="s">
+      <c r="F77" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="G77" s="166" t="s">
+      <c r="G77" s="153" t="s">
         <v>12</v>
       </c>
-      <c r="H77" s="168" t="s">
+      <c r="H77" s="150" t="s">
         <v>20</v>
       </c>
-      <c r="I77" s="169"/>
-      <c r="J77" s="169"/>
-      <c r="K77" s="169"/>
-      <c r="L77" s="169"/>
-      <c r="M77" s="169"/>
-      <c r="N77" s="170"/>
-      <c r="O77" s="166" t="s">
+      <c r="I77" s="151"/>
+      <c r="J77" s="151"/>
+      <c r="K77" s="151"/>
+      <c r="L77" s="151"/>
+      <c r="M77" s="151"/>
+      <c r="N77" s="152"/>
+      <c r="O77" s="153" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="162"/>
+      <c r="A78" s="154"/>
       <c r="B78" s="2" t="s">
         <v>14</v>
       </c>
@@ -4619,9 +4636,9 @@
       <c r="D78" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="165"/>
-      <c r="F78" s="167"/>
-      <c r="G78" s="162"/>
+      <c r="E78" s="163"/>
+      <c r="F78" s="164"/>
+      <c r="G78" s="154"/>
       <c r="H78" s="2" t="s">
         <v>22</v>
       </c>
@@ -4643,17 +4660,17 @@
       <c r="N78" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O78" s="162"/>
+      <c r="O78" s="154"/>
     </row>
     <row r="79" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="155" t="s">
+      <c r="A79" s="165" t="s">
         <v>18</v>
       </c>
-      <c r="B79" s="156"/>
-      <c r="C79" s="156"/>
-      <c r="D79" s="156"/>
-      <c r="E79" s="156"/>
-      <c r="F79" s="157"/>
+      <c r="B79" s="166"/>
+      <c r="C79" s="166"/>
+      <c r="D79" s="166"/>
+      <c r="E79" s="166"/>
+      <c r="F79" s="167"/>
       <c r="G79" s="29">
         <f>G66</f>
         <v>3930</v>
@@ -5086,14 +5103,14 @@
       <c r="O98" s="22"/>
     </row>
     <row r="99" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="158" t="s">
+      <c r="A99" s="155" t="s">
         <v>19</v>
       </c>
-      <c r="B99" s="159"/>
-      <c r="C99" s="159"/>
-      <c r="D99" s="159"/>
-      <c r="E99" s="159"/>
-      <c r="F99" s="160"/>
+      <c r="B99" s="156"/>
+      <c r="C99" s="156"/>
+      <c r="D99" s="156"/>
+      <c r="E99" s="156"/>
+      <c r="F99" s="157"/>
       <c r="G99" s="29">
         <f>SUM(G79:G98)</f>
         <v>3930</v>
@@ -5179,42 +5196,42 @@
       <c r="O104" s="1"/>
     </row>
     <row r="105" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="B105" s="153"/>
-      <c r="C105" s="153"/>
-      <c r="D105" s="153"/>
-      <c r="E105" s="153"/>
-      <c r="F105" s="153"/>
-      <c r="G105" s="153"/>
-      <c r="H105" s="153"/>
-      <c r="I105" s="153"/>
-      <c r="J105" s="153"/>
-      <c r="K105" s="153"/>
-      <c r="L105" s="153"/>
-      <c r="M105" s="153"/>
-      <c r="N105" s="153"/>
-      <c r="O105" s="153"/>
+      <c r="A105" s="158" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" s="158"/>
+      <c r="C105" s="158"/>
+      <c r="D105" s="158"/>
+      <c r="E105" s="158"/>
+      <c r="F105" s="158"/>
+      <c r="G105" s="158"/>
+      <c r="H105" s="158"/>
+      <c r="I105" s="158"/>
+      <c r="J105" s="158"/>
+      <c r="K105" s="158"/>
+      <c r="L105" s="158"/>
+      <c r="M105" s="158"/>
+      <c r="N105" s="158"/>
+      <c r="O105" s="158"/>
     </row>
     <row r="106" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="154" t="s">
+      <c r="A106" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="B106" s="154"/>
-      <c r="C106" s="154"/>
-      <c r="D106" s="154"/>
-      <c r="E106" s="154"/>
-      <c r="F106" s="154"/>
-      <c r="G106" s="154"/>
-      <c r="H106" s="154"/>
-      <c r="I106" s="154"/>
-      <c r="J106" s="154"/>
-      <c r="K106" s="154"/>
-      <c r="L106" s="154"/>
-      <c r="M106" s="154"/>
-      <c r="N106" s="154"/>
-      <c r="O106" s="154"/>
+      <c r="B106" s="159"/>
+      <c r="C106" s="159"/>
+      <c r="D106" s="159"/>
+      <c r="E106" s="159"/>
+      <c r="F106" s="159"/>
+      <c r="G106" s="159"/>
+      <c r="H106" s="159"/>
+      <c r="I106" s="159"/>
+      <c r="J106" s="159"/>
+      <c r="K106" s="159"/>
+      <c r="L106" s="159"/>
+      <c r="M106" s="159"/>
+      <c r="N106" s="159"/>
+      <c r="O106" s="159"/>
     </row>
     <row r="107" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
@@ -5234,23 +5251,23 @@
       <c r="O107" s="3"/>
     </row>
     <row r="108" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="171" t="s">
+      <c r="A108" s="149" t="s">
         <v>23</v>
       </c>
-      <c r="B108" s="171"/>
-      <c r="C108" s="171"/>
-      <c r="D108" s="171"/>
-      <c r="E108" s="171"/>
-      <c r="F108" s="171"/>
-      <c r="G108" s="171"/>
-      <c r="H108" s="171"/>
-      <c r="I108" s="171"/>
-      <c r="J108" s="171"/>
-      <c r="K108" s="171"/>
-      <c r="L108" s="171"/>
-      <c r="M108" s="171"/>
-      <c r="N108" s="171"/>
-      <c r="O108" s="171"/>
+      <c r="B108" s="149"/>
+      <c r="C108" s="149"/>
+      <c r="D108" s="149"/>
+      <c r="E108" s="149"/>
+      <c r="F108" s="149"/>
+      <c r="G108" s="149"/>
+      <c r="H108" s="149"/>
+      <c r="I108" s="149"/>
+      <c r="J108" s="149"/>
+      <c r="K108" s="149"/>
+      <c r="L108" s="149"/>
+      <c r="M108" s="149"/>
+      <c r="N108" s="149"/>
+      <c r="O108" s="149"/>
     </row>
     <row r="109" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
@@ -5373,38 +5390,38 @@
       </c>
     </row>
     <row r="115" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="161" t="s">
+      <c r="A115" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="B115" s="163" t="s">
+      <c r="B115" s="161" t="s">
         <v>9</v>
       </c>
-      <c r="C115" s="163"/>
-      <c r="D115" s="163"/>
-      <c r="E115" s="164" t="s">
+      <c r="C115" s="161"/>
+      <c r="D115" s="161"/>
+      <c r="E115" s="162" t="s">
         <v>10</v>
       </c>
-      <c r="F115" s="164" t="s">
+      <c r="F115" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="G115" s="166" t="s">
+      <c r="G115" s="153" t="s">
         <v>12</v>
       </c>
-      <c r="H115" s="168" t="s">
+      <c r="H115" s="150" t="s">
         <v>20</v>
       </c>
-      <c r="I115" s="169"/>
-      <c r="J115" s="169"/>
-      <c r="K115" s="169"/>
-      <c r="L115" s="169"/>
-      <c r="M115" s="169"/>
-      <c r="N115" s="170"/>
-      <c r="O115" s="166" t="s">
+      <c r="I115" s="151"/>
+      <c r="J115" s="151"/>
+      <c r="K115" s="151"/>
+      <c r="L115" s="151"/>
+      <c r="M115" s="151"/>
+      <c r="N115" s="152"/>
+      <c r="O115" s="153" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="116" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="162"/>
+      <c r="A116" s="154"/>
       <c r="B116" s="2" t="s">
         <v>14</v>
       </c>
@@ -5414,9 +5431,9 @@
       <c r="D116" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E116" s="165"/>
-      <c r="F116" s="167"/>
-      <c r="G116" s="162"/>
+      <c r="E116" s="163"/>
+      <c r="F116" s="164"/>
+      <c r="G116" s="154"/>
       <c r="H116" s="2" t="s">
         <v>22</v>
       </c>
@@ -5438,7 +5455,7 @@
       <c r="N116" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O116" s="162"/>
+      <c r="O116" s="154"/>
     </row>
     <row r="117" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
@@ -5567,14 +5584,14 @@
       <c r="O121" s="17"/>
     </row>
     <row r="122" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="158" t="s">
+      <c r="A122" s="155" t="s">
         <v>19</v>
       </c>
-      <c r="B122" s="159"/>
-      <c r="C122" s="159"/>
-      <c r="D122" s="159"/>
-      <c r="E122" s="159"/>
-      <c r="F122" s="160"/>
+      <c r="B122" s="156"/>
+      <c r="C122" s="156"/>
+      <c r="D122" s="156"/>
+      <c r="E122" s="156"/>
+      <c r="F122" s="157"/>
       <c r="G122" s="29">
         <f>SUM(G117:G121)</f>
         <v>50</v>
@@ -5617,6 +5634,34 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="44">
+    <mergeCell ref="A105:O105"/>
+    <mergeCell ref="A106:O106"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="H12:N12"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A35:O35"/>
+    <mergeCell ref="A36:O36"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:N43"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="G115:G116"/>
     <mergeCell ref="A108:O108"/>
     <mergeCell ref="H115:N115"/>
     <mergeCell ref="O115:O116"/>
@@ -5633,34 +5678,6 @@
     <mergeCell ref="H77:N77"/>
     <mergeCell ref="O77:O78"/>
     <mergeCell ref="A79:F79"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A35:O35"/>
-    <mergeCell ref="A36:O36"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:N43"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="A105:O105"/>
-    <mergeCell ref="A106:O106"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="H12:N12"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:E44"/>
   </mergeCells>
   <pageMargins left="0.47244094488188981" right="0.47244094488188981" top="0.62992125984251968" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId1"/>
@@ -5671,52 +5688,52 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" style="117" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" customWidth="1"/>
     <col min="7" max="7" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="36.28515625" style="124" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="68.5703125" customWidth="1"/>
+    <col min="8" max="8" width="36.28515625" style="123" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="80.28515625" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
     <col min="11" max="11" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-    </row>
-    <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="154" t="s">
+    <row r="2" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="158" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="158"/>
+    </row>
+    <row r="3" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="154"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
     </row>
     <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -5729,1959 +5746,2098 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="171" t="s">
+    <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="149" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="171"/>
-      <c r="C5" s="171"/>
-      <c r="D5" s="171"/>
-      <c r="E5" s="171"/>
-      <c r="F5" s="171"/>
-      <c r="G5" s="171"/>
-      <c r="H5" s="171"/>
-      <c r="I5" s="171"/>
+      <c r="B5" s="149"/>
+      <c r="C5" s="149"/>
+      <c r="D5" s="149"/>
+      <c r="E5" s="149"/>
+      <c r="F5" s="149"/>
+      <c r="G5" s="149"/>
+      <c r="H5" s="149"/>
+      <c r="I5" s="149"/>
     </row>
     <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="119"/>
+      <c r="D6" s="118"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="26"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="7" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="196" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="B7" s="196"/>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="200" t="s">
+        <v>227</v>
+      </c>
+      <c r="E7" s="200"/>
+      <c r="F7" s="200"/>
+      <c r="G7" s="200"/>
+      <c r="H7" s="200"/>
+      <c r="I7" s="200"/>
+      <c r="J7" s="199"/>
+      <c r="K7" s="199"/>
+    </row>
+    <row r="8" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="196" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="B8" s="196"/>
+      <c r="C8" s="197" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="200" t="s">
+        <v>228</v>
+      </c>
+      <c r="E8" s="200"/>
+      <c r="F8" s="200"/>
+      <c r="G8" s="200"/>
+      <c r="H8" s="200"/>
+      <c r="I8" s="200"/>
+      <c r="J8" s="199"/>
+      <c r="K8" s="199"/>
+    </row>
+    <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="198" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="4" t="s">
+      <c r="B9" s="198"/>
+      <c r="C9" s="197" t="s">
         <v>7</v>
       </c>
+      <c r="D9" s="102" t="s">
+        <v>229</v>
+      </c>
+      <c r="E9" s="201"/>
+      <c r="F9" s="201"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="119"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="10">
+      <c r="G10" s="1"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="10">
         <v>2013</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="161" t="s">
+    <row r="11" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="163" t="s">
+      <c r="B11" s="161" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="163"/>
-      <c r="D12" s="163"/>
-      <c r="E12" s="164" t="s">
+      <c r="C11" s="161"/>
+      <c r="D11" s="161"/>
+      <c r="E11" s="162" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="164" t="s">
+      <c r="F11" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="175" t="s">
+      <c r="G11" s="171" t="s">
         <v>12</v>
       </c>
+      <c r="H11" s="126" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="202" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="154"/>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="163"/>
+      <c r="F12" s="164"/>
+      <c r="G12" s="172"/>
       <c r="H12" s="127" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="145" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="162"/>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="165"/>
-      <c r="F13" s="167"/>
-      <c r="G13" s="176"/>
-      <c r="H13" s="128" t="s">
         <v>201</v>
       </c>
-      <c r="I13" s="152" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="146" t="s">
-        <v>228</v>
-      </c>
-      <c r="K13" s="146" t="s">
-        <v>229</v>
+      <c r="I12" s="203"/>
+      <c r="J12" s="143" t="s">
+        <v>225</v>
+      </c>
+      <c r="K12" s="143" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="129">
+        <v>1</v>
+      </c>
+      <c r="B13" s="130">
+        <v>41530</v>
+      </c>
+      <c r="C13" s="131" t="s">
+        <v>164</v>
+      </c>
+      <c r="D13" s="129">
+        <v>676</v>
+      </c>
+      <c r="E13" s="129">
+        <v>9506</v>
+      </c>
+      <c r="F13" s="129">
+        <v>4495</v>
+      </c>
+      <c r="G13" s="132">
+        <f t="shared" ref="G13:G53" si="0">SUM(H13:H13)</f>
+        <v>4000</v>
+      </c>
+      <c r="H13" s="145">
+        <v>4000</v>
+      </c>
+      <c r="I13" s="122" t="s">
+        <v>222</v>
+      </c>
+      <c r="J13" s="144" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="144" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="130">
-        <v>1</v>
-      </c>
-      <c r="B14" s="131">
+      <c r="A14" s="121">
+        <v>2</v>
+      </c>
+      <c r="B14" s="133">
         <v>41530</v>
       </c>
-      <c r="C14" s="132" t="s">
+      <c r="C14" s="134" t="s">
         <v>164</v>
       </c>
-      <c r="D14" s="130">
-        <v>676</v>
-      </c>
-      <c r="E14" s="130">
-        <v>9506</v>
-      </c>
-      <c r="F14" s="130">
-        <v>4495</v>
-      </c>
-      <c r="G14" s="133">
-        <f t="shared" ref="G14:G45" si="0">SUM(H14:H14)</f>
-        <v>4000</v>
-      </c>
-      <c r="H14" s="148">
-        <v>4000</v>
-      </c>
-      <c r="I14" s="123" t="s">
-        <v>225</v>
-      </c>
-      <c r="J14" s="147" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="147" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="122">
-        <v>2</v>
-      </c>
-      <c r="B15" s="134">
-        <v>41530</v>
-      </c>
-      <c r="C15" s="135" t="s">
-        <v>164</v>
-      </c>
-      <c r="D15" s="122">
+      <c r="D14" s="121">
         <v>680</v>
       </c>
-      <c r="E15" s="122">
+      <c r="E14" s="121">
         <v>9507</v>
       </c>
-      <c r="F15" s="122">
+      <c r="F14" s="121">
         <v>4496</v>
       </c>
-      <c r="G15" s="129">
+      <c r="G14" s="128">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="H15" s="149">
+      <c r="H14" s="146">
         <v>4000</v>
       </c>
-      <c r="I15" s="123" t="s">
-        <v>226</v>
-      </c>
-      <c r="J15" s="147" t="s">
+      <c r="I14" s="122" t="s">
+        <v>223</v>
+      </c>
+      <c r="J14" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="K15" s="147" t="s">
+      <c r="K14" s="144" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="122">
+    <row r="15" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="121">
         <v>3</v>
       </c>
-      <c r="B16" s="134">
+      <c r="B15" s="133">
         <v>41544</v>
       </c>
-      <c r="C16" s="135" t="s">
+      <c r="C15" s="134" t="s">
         <v>164</v>
       </c>
-      <c r="D16" s="122">
+      <c r="D15" s="121">
         <v>719</v>
       </c>
-      <c r="E16" s="122">
+      <c r="E15" s="121">
         <v>10004</v>
       </c>
-      <c r="F16" s="122">
+      <c r="F15" s="121">
         <v>5128</v>
       </c>
-      <c r="G16" s="129">
+      <c r="G15" s="128">
         <f t="shared" si="0"/>
         <v>4212.7299999999996</v>
       </c>
-      <c r="H16" s="149">
+      <c r="H15" s="146">
         <v>4212.7299999999996</v>
       </c>
-      <c r="I16" s="123" t="s">
-        <v>225</v>
-      </c>
-      <c r="J16" s="147" t="s">
+      <c r="I15" s="122" t="s">
+        <v>222</v>
+      </c>
+      <c r="J15" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="K16" s="147" t="s">
+      <c r="K15" s="144" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="130">
+    <row r="16" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="129">
         <v>4</v>
       </c>
-      <c r="B17" s="134">
+      <c r="B16" s="133">
         <v>41544</v>
       </c>
-      <c r="C17" s="135" t="s">
+      <c r="C16" s="134" t="s">
         <v>164</v>
       </c>
-      <c r="D17" s="122">
+      <c r="D16" s="121">
         <v>738</v>
       </c>
-      <c r="E17" s="122">
+      <c r="E16" s="121">
         <v>10003</v>
       </c>
-      <c r="F17" s="122">
+      <c r="F16" s="121">
         <v>5129</v>
       </c>
-      <c r="G17" s="129">
+      <c r="G16" s="128">
         <f t="shared" si="0"/>
         <v>7998.82</v>
       </c>
-      <c r="H17" s="149">
+      <c r="H16" s="146">
         <v>7998.82</v>
       </c>
-      <c r="I17" s="123" t="s">
-        <v>227</v>
-      </c>
-      <c r="J17" s="147" t="s">
+      <c r="I16" s="122" t="s">
+        <v>224</v>
+      </c>
+      <c r="J16" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="K17" s="147" t="s">
+      <c r="K16" s="144" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="122">
+    <row r="17" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="121">
         <v>5</v>
       </c>
-      <c r="B18" s="134">
+      <c r="B17" s="133">
         <v>41549</v>
       </c>
-      <c r="C18" s="135" t="s">
+      <c r="C17" s="134" t="s">
         <v>164</v>
       </c>
-      <c r="D18" s="122">
+      <c r="D17" s="121">
         <v>801</v>
       </c>
-      <c r="E18" s="136">
+      <c r="E17" s="135">
         <v>10351</v>
       </c>
-      <c r="F18" s="122">
+      <c r="F17" s="121">
         <v>5244</v>
       </c>
-      <c r="G18" s="129">
+      <c r="G17" s="128">
         <f t="shared" si="0"/>
         <v>6101.55</v>
       </c>
-      <c r="H18" s="149">
+      <c r="H17" s="146">
         <v>6101.55</v>
       </c>
-      <c r="I18" s="123" t="s">
-        <v>205</v>
-      </c>
-      <c r="J18" s="147" t="s">
+      <c r="I17" s="122" t="s">
+        <v>202</v>
+      </c>
+      <c r="J17" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="K18" s="147" t="s">
+      <c r="K17" s="144" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="122">
+    <row r="18" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="121">
         <v>6</v>
       </c>
-      <c r="B19" s="134">
+      <c r="B18" s="133">
         <v>41549</v>
       </c>
-      <c r="C19" s="135" t="s">
+      <c r="C18" s="134" t="s">
         <v>164</v>
       </c>
-      <c r="D19" s="122">
+      <c r="D18" s="121">
         <v>801</v>
       </c>
-      <c r="E19" s="136">
+      <c r="E18" s="135">
         <v>10352</v>
       </c>
-      <c r="F19" s="122">
+      <c r="F18" s="121">
         <v>5244</v>
       </c>
-      <c r="G19" s="129">
+      <c r="G18" s="128">
         <f t="shared" si="0"/>
         <v>455</v>
       </c>
-      <c r="H19" s="149">
+      <c r="H18" s="146">
         <v>455</v>
       </c>
-      <c r="I19" s="123" t="s">
+      <c r="I18" s="122" t="s">
         <v>174</v>
       </c>
-      <c r="J19" s="147" t="s">
+      <c r="J18" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="147" t="s">
+      <c r="K18" s="144" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="130">
+    <row r="19" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="129">
         <v>7</v>
       </c>
-      <c r="B20" s="134">
+      <c r="B19" s="133">
         <v>41549</v>
       </c>
-      <c r="C20" s="135" t="s">
+      <c r="C19" s="134" t="s">
         <v>164</v>
       </c>
-      <c r="D20" s="122">
+      <c r="D19" s="121">
         <v>801</v>
       </c>
-      <c r="E20" s="136">
+      <c r="E19" s="135">
         <v>10353</v>
       </c>
-      <c r="F20" s="122">
+      <c r="F19" s="121">
         <v>5244</v>
       </c>
-      <c r="G20" s="129">
+      <c r="G19" s="128">
         <f t="shared" si="0"/>
         <v>630</v>
       </c>
-      <c r="H20" s="149">
+      <c r="H19" s="146">
         <v>630</v>
       </c>
-      <c r="I20" s="123" t="s">
+      <c r="I19" s="122" t="s">
         <v>175</v>
       </c>
-      <c r="J20" s="147" t="s">
+      <c r="J19" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="K20" s="147" t="s">
+      <c r="K19" s="144" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="122">
+    <row r="20" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="121">
         <v>8</v>
       </c>
-      <c r="B21" s="134">
+      <c r="B20" s="133">
         <v>41549</v>
       </c>
-      <c r="C21" s="135" t="s">
+      <c r="C20" s="134" t="s">
         <v>164</v>
       </c>
-      <c r="D21" s="122">
+      <c r="D20" s="121">
         <v>801</v>
       </c>
-      <c r="E21" s="136">
+      <c r="E20" s="135">
         <v>10354</v>
       </c>
-      <c r="F21" s="122">
+      <c r="F20" s="121">
         <v>5244</v>
       </c>
-      <c r="G21" s="129">
+      <c r="G20" s="128">
         <f t="shared" si="0"/>
         <v>443.45</v>
       </c>
-      <c r="H21" s="149">
+      <c r="H20" s="146">
         <v>443.45</v>
       </c>
-      <c r="I21" s="123" t="s">
-        <v>206</v>
-      </c>
-      <c r="J21" s="147" t="s">
+      <c r="I20" s="122" t="s">
+        <v>203</v>
+      </c>
+      <c r="J20" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="K21" s="147" t="s">
+      <c r="K20" s="144" t="s">
         <v>58</v>
       </c>
     </row>
+    <row r="21" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="158" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="158"/>
+      <c r="C21" s="158"/>
+      <c r="D21" s="158"/>
+      <c r="E21" s="158"/>
+      <c r="F21" s="158"/>
+      <c r="G21" s="158"/>
+      <c r="H21" s="158"/>
+      <c r="I21" s="158"/>
+    </row>
     <row r="22" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="122">
+      <c r="A22" s="159" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="159"/>
+      <c r="C22" s="159"/>
+      <c r="D22" s="159"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="159"/>
+      <c r="G22" s="159"/>
+      <c r="H22" s="159"/>
+      <c r="I22" s="159"/>
+    </row>
+    <row r="23" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="149" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="149"/>
+      <c r="C24" s="149"/>
+      <c r="D24" s="149"/>
+      <c r="E24" s="149"/>
+      <c r="F24" s="149"/>
+      <c r="G24" s="149"/>
+      <c r="H24" s="149"/>
+      <c r="I24" s="149"/>
+    </row>
+    <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="196" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="196"/>
+      <c r="C26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="200" t="s">
+        <v>227</v>
+      </c>
+      <c r="E26" s="200"/>
+      <c r="F26" s="200"/>
+      <c r="G26" s="200"/>
+      <c r="H26" s="200"/>
+      <c r="I26" s="200"/>
+      <c r="J26" s="199"/>
+      <c r="K26" s="199"/>
+    </row>
+    <row r="27" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="196" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="196"/>
+      <c r="C27" s="197" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="200" t="s">
+        <v>228</v>
+      </c>
+      <c r="E27" s="200"/>
+      <c r="F27" s="200"/>
+      <c r="G27" s="200"/>
+      <c r="H27" s="200"/>
+      <c r="I27" s="200"/>
+      <c r="J27" s="199"/>
+      <c r="K27" s="199"/>
+    </row>
+    <row r="28" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="198" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="198"/>
+      <c r="C28" s="197" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="102" t="s">
+        <v>229</v>
+      </c>
+      <c r="E28" s="201"/>
+      <c r="F28" s="201"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="7"/>
+    </row>
+    <row r="29" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="124"/>
+      <c r="I29" s="10">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="121">
         <v>9</v>
       </c>
-      <c r="B22" s="134">
+      <c r="B30" s="133">
         <v>41547</v>
       </c>
-      <c r="C22" s="135" t="s">
+      <c r="C30" s="134" t="s">
         <v>164</v>
       </c>
-      <c r="D22" s="122">
+      <c r="D30" s="121">
         <v>784</v>
       </c>
-      <c r="E22" s="122">
+      <c r="E30" s="121">
         <v>10344</v>
       </c>
-      <c r="F22" s="122">
+      <c r="F30" s="121">
         <v>5245</v>
       </c>
-      <c r="G22" s="129">
+      <c r="G30" s="128">
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
-      <c r="H22" s="149">
+      <c r="H30" s="146">
         <v>7000</v>
       </c>
-      <c r="I22" s="123" t="s">
-        <v>207</v>
-      </c>
-      <c r="J22" s="147" t="s">
+      <c r="I30" s="122" t="s">
+        <v>204</v>
+      </c>
+      <c r="J30" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="K22" s="147" t="s">
+      <c r="K30" s="144" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="130">
+    <row r="31" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="129">
         <v>10</v>
       </c>
-      <c r="B23" s="134">
+      <c r="B31" s="133">
         <v>41561</v>
       </c>
-      <c r="C23" s="135" t="s">
+      <c r="C31" s="134" t="s">
         <v>164</v>
       </c>
-      <c r="D23" s="122">
+      <c r="D31" s="121">
         <v>829</v>
       </c>
-      <c r="E23" s="122">
+      <c r="E31" s="121">
         <v>10863</v>
       </c>
-      <c r="F23" s="122">
+      <c r="F31" s="121">
         <v>5393</v>
       </c>
-      <c r="G23" s="129">
+      <c r="G31" s="128">
         <f t="shared" si="0"/>
         <v>30022.09</v>
       </c>
-      <c r="H23" s="149">
+      <c r="H31" s="146">
         <v>30022.09</v>
       </c>
-      <c r="I23" s="123" t="s">
-        <v>208</v>
-      </c>
-      <c r="J23" s="147" t="s">
+      <c r="I31" s="122" t="s">
+        <v>205</v>
+      </c>
+      <c r="J31" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="K23" s="147" t="s">
+      <c r="K31" s="144" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="122">
+    <row r="32" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="121">
         <v>11</v>
       </c>
-      <c r="B24" s="134">
+      <c r="B32" s="133">
         <v>41558</v>
       </c>
-      <c r="C24" s="135" t="s">
+      <c r="C32" s="134" t="s">
         <v>185</v>
       </c>
-      <c r="D24" s="122" t="s">
+      <c r="D32" s="121" t="s">
         <v>186</v>
       </c>
-      <c r="E24" s="122">
+      <c r="E32" s="121">
         <v>10755</v>
       </c>
-      <c r="F24" s="122">
+      <c r="F32" s="121">
         <v>5483</v>
       </c>
-      <c r="G24" s="129">
+      <c r="G32" s="128">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="H24" s="149">
+      <c r="H32" s="146">
         <v>5000</v>
       </c>
-      <c r="I24" s="123" t="s">
-        <v>222</v>
-      </c>
-      <c r="J24" s="147" t="s">
+      <c r="I32" s="122" t="s">
+        <v>219</v>
+      </c>
+      <c r="J32" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="147" t="s">
+      <c r="K32" s="144" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="122">
+    <row r="33" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="121">
         <v>12</v>
       </c>
-      <c r="B25" s="134">
+      <c r="B33" s="133">
         <v>41576</v>
       </c>
-      <c r="C25" s="135" t="s">
+      <c r="C33" s="134" t="s">
         <v>164</v>
       </c>
-      <c r="D25" s="122">
+      <c r="D33" s="121">
         <v>877</v>
       </c>
-      <c r="E25" s="122">
+      <c r="E33" s="121">
         <v>11451</v>
       </c>
-      <c r="F25" s="122">
+      <c r="F33" s="121">
         <v>5885</v>
       </c>
-      <c r="G25" s="129">
+      <c r="G33" s="128">
         <f t="shared" si="0"/>
         <v>9594</v>
       </c>
-      <c r="H25" s="149">
+      <c r="H33" s="146">
         <v>9594</v>
       </c>
-      <c r="I25" s="123" t="s">
-        <v>209</v>
-      </c>
-      <c r="J25" s="147" t="s">
+      <c r="I33" s="122" t="s">
+        <v>206</v>
+      </c>
+      <c r="J33" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="K25" s="147" t="s">
+      <c r="K33" s="144" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="130">
+    <row r="34" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="129">
         <v>13</v>
       </c>
-      <c r="B26" s="134">
+      <c r="B34" s="133">
         <v>41576</v>
       </c>
-      <c r="C26" s="135" t="s">
+      <c r="C34" s="134" t="s">
         <v>164</v>
       </c>
-      <c r="D26" s="122">
+      <c r="D34" s="121">
         <v>877</v>
       </c>
-      <c r="E26" s="122">
+      <c r="E34" s="121">
         <v>11452</v>
       </c>
-      <c r="F26" s="122">
+      <c r="F34" s="121">
         <v>5885</v>
       </c>
-      <c r="G26" s="129">
+      <c r="G34" s="128">
         <f t="shared" si="0"/>
         <v>455</v>
       </c>
-      <c r="H26" s="149">
+      <c r="H34" s="146">
         <v>455</v>
       </c>
-      <c r="I26" s="123" t="s">
+      <c r="I34" s="122" t="s">
         <v>174</v>
       </c>
-      <c r="J26" s="147" t="s">
+      <c r="J34" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="K26" s="147" t="s">
+      <c r="K34" s="144" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="122">
+    <row r="35" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="121">
         <v>14</v>
       </c>
-      <c r="B27" s="134">
+      <c r="B35" s="133">
         <v>41576</v>
       </c>
-      <c r="C27" s="135" t="s">
+      <c r="C35" s="134" t="s">
         <v>164</v>
       </c>
-      <c r="D27" s="122">
+      <c r="D35" s="121">
         <v>877</v>
       </c>
-      <c r="E27" s="122">
+      <c r="E35" s="121">
         <v>11453</v>
       </c>
-      <c r="F27" s="122">
+      <c r="F35" s="121">
         <v>5885</v>
       </c>
-      <c r="G27" s="129">
+      <c r="G35" s="128">
         <f t="shared" si="0"/>
         <v>990</v>
       </c>
-      <c r="H27" s="149">
+      <c r="H35" s="146">
         <v>990</v>
       </c>
-      <c r="I27" s="123" t="s">
+      <c r="I35" s="122" t="s">
         <v>175</v>
       </c>
-      <c r="J27" s="147" t="s">
+      <c r="J35" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="K27" s="147" t="s">
+      <c r="K35" s="144" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="122">
+    <row r="36" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="121">
         <v>15</v>
       </c>
-      <c r="B28" s="134">
+      <c r="B36" s="133">
         <v>41576</v>
       </c>
-      <c r="C28" s="135" t="s">
+      <c r="C36" s="134" t="s">
         <v>164</v>
       </c>
-      <c r="D28" s="122">
+      <c r="D36" s="121">
         <v>877</v>
       </c>
-      <c r="E28" s="122">
+      <c r="E36" s="121">
         <v>11454</v>
       </c>
-      <c r="F28" s="122">
+      <c r="F36" s="121">
         <v>5885</v>
       </c>
-      <c r="G28" s="129">
+      <c r="G36" s="128">
         <f t="shared" si="0"/>
         <v>951</v>
       </c>
-      <c r="H28" s="149">
+      <c r="H36" s="146">
         <v>951</v>
       </c>
-      <c r="I28" s="123" t="s">
-        <v>206</v>
-      </c>
-      <c r="J28" s="147" t="s">
+      <c r="I36" s="122" t="s">
+        <v>203</v>
+      </c>
+      <c r="J36" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="147" t="s">
+      <c r="K36" s="144" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="130">
+    <row r="37" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="129">
         <v>16</v>
       </c>
-      <c r="B29" s="134">
+      <c r="B37" s="133">
         <v>41578</v>
       </c>
-      <c r="C29" s="135" t="s">
+      <c r="C37" s="134" t="s">
         <v>164</v>
       </c>
-      <c r="D29" s="122">
+      <c r="D37" s="121">
         <v>931</v>
       </c>
-      <c r="E29" s="122">
+      <c r="E37" s="121">
         <v>11630</v>
       </c>
-      <c r="F29" s="122">
+      <c r="F37" s="121">
         <v>6015</v>
       </c>
-      <c r="G29" s="129">
+      <c r="G37" s="128">
         <f t="shared" si="0"/>
         <v>8105.61</v>
       </c>
-      <c r="H29" s="149">
+      <c r="H37" s="146">
         <v>8105.61</v>
       </c>
-      <c r="I29" s="123" t="s">
-        <v>209</v>
-      </c>
-      <c r="J29" s="147" t="s">
+      <c r="I37" s="122" t="s">
+        <v>206</v>
+      </c>
+      <c r="J37" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="K29" s="147" t="s">
+      <c r="K37" s="144" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="122">
+    <row r="38" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="121">
         <v>17</v>
       </c>
-      <c r="B30" s="134">
+      <c r="B38" s="133">
         <v>41578</v>
       </c>
-      <c r="C30" s="135" t="s">
+      <c r="C38" s="134" t="s">
         <v>164</v>
       </c>
-      <c r="D30" s="122">
+      <c r="D38" s="121">
         <v>931</v>
       </c>
-      <c r="E30" s="122">
+      <c r="E38" s="121">
         <v>11631</v>
       </c>
-      <c r="F30" s="122">
+      <c r="F38" s="121">
         <v>6015</v>
       </c>
-      <c r="G30" s="129">
+      <c r="G38" s="128">
         <f t="shared" si="0"/>
         <v>1013</v>
       </c>
-      <c r="H30" s="149">
+      <c r="H38" s="146">
         <v>1013</v>
       </c>
-      <c r="I30" s="123" t="s">
+      <c r="I38" s="122" t="s">
         <v>174</v>
       </c>
-      <c r="J30" s="147" t="s">
+      <c r="J38" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="K30" s="147" t="s">
+      <c r="K38" s="144" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="122">
+    <row r="39" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="121">
         <v>18</v>
       </c>
-      <c r="B31" s="134">
+      <c r="B39" s="133">
         <v>41578</v>
       </c>
-      <c r="C31" s="135" t="s">
+      <c r="C39" s="134" t="s">
         <v>164</v>
       </c>
-      <c r="D31" s="122">
+      <c r="D39" s="121">
         <v>931</v>
       </c>
-      <c r="E31" s="122">
+      <c r="E39" s="121">
         <v>11632</v>
       </c>
-      <c r="F31" s="122">
+      <c r="F39" s="121">
         <v>6015</v>
       </c>
-      <c r="G31" s="129">
+      <c r="G39" s="128">
         <f t="shared" si="0"/>
         <v>964</v>
       </c>
-      <c r="H31" s="149">
+      <c r="H39" s="146">
         <v>964</v>
       </c>
-      <c r="I31" s="123" t="s">
+      <c r="I39" s="122" t="s">
         <v>175</v>
       </c>
-      <c r="J31" s="147" t="s">
+      <c r="J39" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="K31" s="147" t="s">
+      <c r="K39" s="144" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="130">
+    <row r="40" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="129">
         <v>19</v>
       </c>
-      <c r="B32" s="134">
+      <c r="B40" s="133">
         <v>41578</v>
       </c>
-      <c r="C32" s="135" t="s">
+      <c r="C40" s="134" t="s">
         <v>164</v>
       </c>
-      <c r="D32" s="122">
+      <c r="D40" s="121">
         <v>931</v>
       </c>
-      <c r="E32" s="122">
+      <c r="E40" s="121">
         <v>11633</v>
       </c>
-      <c r="F32" s="122">
+      <c r="F40" s="121">
         <v>6015</v>
       </c>
-      <c r="G32" s="129">
+      <c r="G40" s="128">
         <f t="shared" si="0"/>
         <v>121</v>
       </c>
-      <c r="H32" s="149">
+      <c r="H40" s="146">
         <v>121</v>
       </c>
-      <c r="I32" s="123" t="s">
+      <c r="I40" s="122" t="s">
         <v>176</v>
       </c>
-      <c r="J32" s="147" t="s">
+      <c r="J40" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="K32" s="147" t="s">
+      <c r="K40" s="144" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="122">
+    <row r="41" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="121">
         <v>20</v>
       </c>
-      <c r="B33" s="134">
+      <c r="B41" s="133">
         <v>41578</v>
       </c>
-      <c r="C33" s="135" t="s">
+      <c r="C41" s="134" t="s">
         <v>164</v>
       </c>
-      <c r="D33" s="122">
+      <c r="D41" s="121">
         <v>931</v>
       </c>
-      <c r="E33" s="122">
+      <c r="E41" s="121">
         <v>11634</v>
       </c>
-      <c r="F33" s="122">
+      <c r="F41" s="121">
         <v>6015</v>
       </c>
-      <c r="G33" s="129">
+      <c r="G41" s="128">
         <f t="shared" si="0"/>
         <v>202.3</v>
       </c>
-      <c r="H33" s="149">
+      <c r="H41" s="146">
         <v>202.3</v>
       </c>
-      <c r="I33" s="123" t="s">
-        <v>210</v>
-      </c>
-      <c r="J33" s="147" t="s">
+      <c r="I41" s="122" t="s">
+        <v>207</v>
+      </c>
+      <c r="J41" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="K33" s="147" t="s">
+      <c r="K41" s="144" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="122">
+    <row r="42" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="121">
         <v>21</v>
       </c>
-      <c r="B34" s="134">
+      <c r="B42" s="133">
         <v>41578</v>
       </c>
-      <c r="C34" s="135" t="s">
+      <c r="C42" s="134" t="s">
         <v>164</v>
       </c>
-      <c r="D34" s="122">
+      <c r="D42" s="121">
         <v>936</v>
       </c>
-      <c r="E34" s="122">
+      <c r="E42" s="121">
         <v>11635</v>
       </c>
-      <c r="F34" s="122">
+      <c r="F42" s="121">
         <v>6018</v>
       </c>
-      <c r="G34" s="129">
+      <c r="G42" s="128">
         <f t="shared" si="0"/>
         <v>33753.120000000003</v>
       </c>
-      <c r="H34" s="149">
+      <c r="H42" s="146">
         <v>33753.120000000003</v>
       </c>
-      <c r="I34" s="123" t="s">
-        <v>209</v>
-      </c>
-      <c r="J34" s="147" t="s">
+      <c r="I42" s="122" t="s">
+        <v>206</v>
+      </c>
+      <c r="J42" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="K34" s="147" t="s">
+      <c r="K42" s="144" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="130">
+    <row r="43" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="129">
         <v>22</v>
       </c>
-      <c r="B35" s="134">
+      <c r="B43" s="133">
         <v>41578</v>
       </c>
-      <c r="C35" s="135" t="s">
+      <c r="C43" s="134" t="s">
         <v>164</v>
       </c>
-      <c r="D35" s="122">
+      <c r="D43" s="121">
         <v>936</v>
       </c>
-      <c r="E35" s="122">
+      <c r="E43" s="121">
         <v>11636</v>
       </c>
-      <c r="F35" s="122">
+      <c r="F43" s="121">
         <v>6018</v>
       </c>
-      <c r="G35" s="129">
+      <c r="G43" s="128">
         <f t="shared" si="0"/>
         <v>4076</v>
       </c>
-      <c r="H35" s="149">
+      <c r="H43" s="146">
         <v>4076</v>
       </c>
-      <c r="I35" s="123" t="s">
+      <c r="I43" s="122" t="s">
         <v>174</v>
       </c>
-      <c r="J35" s="147" t="s">
+      <c r="J43" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="K35" s="147" t="s">
+      <c r="K43" s="144" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="122">
+    <row r="44" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="121">
         <v>23</v>
       </c>
-      <c r="B36" s="134">
+      <c r="B44" s="133">
         <v>41578</v>
       </c>
-      <c r="C36" s="135" t="s">
+      <c r="C44" s="134" t="s">
         <v>164</v>
       </c>
-      <c r="D36" s="122">
+      <c r="D44" s="121">
         <v>936</v>
       </c>
-      <c r="E36" s="122">
+      <c r="E44" s="121">
         <v>11637</v>
       </c>
-      <c r="F36" s="122">
+      <c r="F44" s="121">
         <v>6018</v>
       </c>
-      <c r="G36" s="129">
+      <c r="G44" s="128">
         <f t="shared" si="0"/>
         <v>4332</v>
       </c>
-      <c r="H36" s="149">
+      <c r="H44" s="146">
         <v>4332</v>
       </c>
-      <c r="I36" s="123" t="s">
+      <c r="I44" s="122" t="s">
         <v>175</v>
       </c>
-      <c r="J36" s="147" t="s">
+      <c r="J44" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="K36" s="147" t="s">
+      <c r="K44" s="144" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="122">
+    <row r="45" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="121">
         <v>24</v>
       </c>
-      <c r="B37" s="134">
+      <c r="B45" s="133">
         <v>41578</v>
       </c>
-      <c r="C37" s="135" t="s">
+      <c r="C45" s="134" t="s">
         <v>164</v>
       </c>
-      <c r="D37" s="122">
+      <c r="D45" s="121">
         <v>936</v>
       </c>
-      <c r="E37" s="122">
+      <c r="E45" s="121">
         <v>11638</v>
       </c>
-      <c r="F37" s="122">
+      <c r="F45" s="121">
         <v>6018</v>
       </c>
-      <c r="G37" s="129">
+      <c r="G45" s="128">
         <f t="shared" si="0"/>
         <v>503</v>
       </c>
-      <c r="H37" s="149">
+      <c r="H45" s="146">
         <v>503</v>
       </c>
-      <c r="I37" s="123" t="s">
+      <c r="I45" s="122" t="s">
         <v>176</v>
       </c>
-      <c r="J37" s="147" t="s">
+      <c r="J45" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="K37" s="147" t="s">
+      <c r="K45" s="144" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="130">
+    <row r="46" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="129">
         <v>25</v>
       </c>
-      <c r="B38" s="134">
+      <c r="B46" s="133">
         <v>41578</v>
       </c>
-      <c r="C38" s="135" t="s">
+      <c r="C46" s="134" t="s">
         <v>164</v>
       </c>
-      <c r="D38" s="122">
+      <c r="D46" s="121">
         <v>936</v>
       </c>
-      <c r="E38" s="122">
+      <c r="E46" s="121">
         <v>11639</v>
       </c>
-      <c r="F38" s="122">
+      <c r="F46" s="121">
         <v>6018</v>
       </c>
-      <c r="G38" s="129">
+      <c r="G46" s="128">
         <f t="shared" si="0"/>
         <v>842.45</v>
       </c>
-      <c r="H38" s="149">
+      <c r="H46" s="146">
         <v>842.45</v>
       </c>
-      <c r="I38" s="123" t="s">
-        <v>210</v>
-      </c>
-      <c r="J38" s="147" t="s">
+      <c r="I46" s="122" t="s">
+        <v>207</v>
+      </c>
+      <c r="J46" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="K38" s="147" t="s">
+      <c r="K46" s="144" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="122">
+    <row r="47" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="121">
         <v>26</v>
       </c>
-      <c r="B39" s="134">
+      <c r="B47" s="133">
         <v>41578</v>
       </c>
-      <c r="C39" s="135" t="s">
+      <c r="C47" s="134" t="s">
         <v>164</v>
       </c>
-      <c r="D39" s="122">
+      <c r="D47" s="121">
         <v>936</v>
       </c>
-      <c r="E39" s="122">
+      <c r="E47" s="121">
         <v>11640</v>
       </c>
-      <c r="F39" s="122">
+      <c r="F47" s="121">
         <v>6018</v>
       </c>
-      <c r="G39" s="129">
+      <c r="G47" s="128">
         <f t="shared" si="0"/>
         <v>86.68</v>
       </c>
-      <c r="H39" s="149">
+      <c r="H47" s="146">
         <v>86.68</v>
       </c>
-      <c r="I39" s="123" t="s">
-        <v>211</v>
-      </c>
-      <c r="J39" s="147" t="s">
+      <c r="I47" s="122" t="s">
+        <v>208</v>
+      </c>
+      <c r="J47" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="K39" s="147" t="s">
+      <c r="K47" s="144" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="122">
+    <row r="48" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="121">
         <v>27</v>
       </c>
-      <c r="B40" s="134">
+      <c r="B48" s="133">
         <v>41578</v>
       </c>
-      <c r="C40" s="135" t="s">
+      <c r="C48" s="134" t="s">
         <v>164</v>
       </c>
-      <c r="D40" s="122">
+      <c r="D48" s="121">
         <v>936</v>
       </c>
-      <c r="E40" s="122">
+      <c r="E48" s="121">
         <v>11641</v>
       </c>
-      <c r="F40" s="122">
+      <c r="F48" s="121">
         <v>6018</v>
       </c>
-      <c r="G40" s="129">
+      <c r="G48" s="128">
         <f t="shared" si="0"/>
         <v>52.24</v>
       </c>
-      <c r="H40" s="149">
+      <c r="H48" s="146">
         <v>52.24</v>
       </c>
-      <c r="I40" s="123" t="s">
-        <v>212</v>
-      </c>
-      <c r="J40" s="147" t="s">
+      <c r="I48" s="122" t="s">
+        <v>209</v>
+      </c>
+      <c r="J48" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="K40" s="147" t="s">
+      <c r="K48" s="144" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="130">
+    <row r="49" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="129">
         <v>28</v>
       </c>
-      <c r="B41" s="134">
+      <c r="B49" s="133">
         <v>41578</v>
       </c>
-      <c r="C41" s="135" t="s">
+      <c r="C49" s="134" t="s">
         <v>164</v>
       </c>
-      <c r="D41" s="122">
+      <c r="D49" s="121">
         <v>953</v>
       </c>
-      <c r="E41" s="122">
+      <c r="E49" s="121">
         <v>11713</v>
       </c>
-      <c r="F41" s="122">
+      <c r="F49" s="121">
         <v>6035</v>
       </c>
-      <c r="G41" s="129">
+      <c r="G49" s="128">
         <f t="shared" si="0"/>
         <v>4929.78</v>
       </c>
-      <c r="H41" s="149">
+      <c r="H49" s="146">
         <v>4929.78</v>
       </c>
-      <c r="I41" s="123" t="s">
-        <v>209</v>
-      </c>
-      <c r="J41" s="147" t="s">
+      <c r="I49" s="122" t="s">
+        <v>206</v>
+      </c>
+      <c r="J49" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="K41" s="147" t="s">
+      <c r="K49" s="144" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="122">
+    <row r="50" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="121">
         <v>29</v>
       </c>
-      <c r="B42" s="134">
+      <c r="B50" s="133">
         <v>41578</v>
       </c>
-      <c r="C42" s="135" t="s">
+      <c r="C50" s="134" t="s">
         <v>164</v>
       </c>
-      <c r="D42" s="122">
+      <c r="D50" s="121">
         <v>953</v>
       </c>
-      <c r="E42" s="122">
+      <c r="E50" s="121">
         <v>11714</v>
       </c>
-      <c r="F42" s="122">
+      <c r="F50" s="121">
         <v>6035</v>
       </c>
-      <c r="G42" s="129">
+      <c r="G50" s="128">
         <f t="shared" si="0"/>
         <v>616</v>
       </c>
-      <c r="H42" s="149">
+      <c r="H50" s="146">
         <v>616</v>
       </c>
-      <c r="I42" s="123" t="s">
+      <c r="I50" s="122" t="s">
         <v>174</v>
       </c>
-      <c r="J42" s="147" t="s">
+      <c r="J50" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="K42" s="147" t="s">
+      <c r="K50" s="144" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="122">
+    <row r="51" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="121">
         <v>30</v>
       </c>
-      <c r="B43" s="134">
+      <c r="B51" s="133">
         <v>41578</v>
       </c>
-      <c r="C43" s="135" t="s">
+      <c r="C51" s="134" t="s">
         <v>164</v>
       </c>
-      <c r="D43" s="122">
+      <c r="D51" s="121">
         <v>953</v>
       </c>
-      <c r="E43" s="122">
+      <c r="E51" s="121">
         <v>11715</v>
       </c>
-      <c r="F43" s="122">
+      <c r="F51" s="121">
         <v>6035</v>
       </c>
-      <c r="G43" s="129">
+      <c r="G51" s="128">
         <f t="shared" si="0"/>
         <v>878</v>
       </c>
-      <c r="H43" s="149">
+      <c r="H51" s="146">
         <v>878</v>
       </c>
-      <c r="I43" s="123" t="s">
+      <c r="I51" s="122" t="s">
         <v>175</v>
       </c>
-      <c r="J43" s="147" t="s">
+      <c r="J51" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="K43" s="147" t="s">
+      <c r="K51" s="144" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="130">
+    <row r="52" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="129">
         <v>31</v>
       </c>
-      <c r="B44" s="134">
+      <c r="B52" s="133">
         <v>41578</v>
       </c>
-      <c r="C44" s="135" t="s">
+      <c r="C52" s="134" t="s">
         <v>164</v>
       </c>
-      <c r="D44" s="122">
+      <c r="D52" s="121">
         <v>953</v>
       </c>
-      <c r="E44" s="122">
+      <c r="E52" s="121">
         <v>11716</v>
       </c>
-      <c r="F44" s="122">
+      <c r="F52" s="121">
         <v>6035</v>
       </c>
-      <c r="G44" s="129">
+      <c r="G52" s="128">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="H44" s="149">
+      <c r="H52" s="146">
         <v>73</v>
       </c>
-      <c r="I44" s="123" t="s">
+      <c r="I52" s="122" t="s">
         <v>176</v>
       </c>
-      <c r="J44" s="147" t="s">
+      <c r="J52" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="K44" s="147" t="s">
+      <c r="K52" s="144" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="122">
+    <row r="53" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="121">
         <v>32</v>
       </c>
-      <c r="B45" s="134">
+      <c r="B53" s="133">
         <v>41578</v>
       </c>
-      <c r="C45" s="135" t="s">
+      <c r="C53" s="134" t="s">
         <v>164</v>
       </c>
-      <c r="D45" s="122">
+      <c r="D53" s="121">
         <v>953</v>
       </c>
-      <c r="E45" s="122">
+      <c r="E53" s="121">
         <v>11717</v>
       </c>
-      <c r="F45" s="122">
+      <c r="F53" s="121">
         <v>6035</v>
       </c>
-      <c r="G45" s="129">
+      <c r="G53" s="128">
         <f t="shared" si="0"/>
         <v>123.06</v>
       </c>
-      <c r="H45" s="149">
+      <c r="H53" s="146">
         <v>123.06</v>
       </c>
-      <c r="I45" s="123" t="s">
-        <v>213</v>
-      </c>
-      <c r="J45" s="147" t="s">
+      <c r="I53" s="122" t="s">
+        <v>210</v>
+      </c>
+      <c r="J53" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="K45" s="147" t="s">
+      <c r="K53" s="144" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="122">
+    <row r="54" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="121">
         <v>33</v>
       </c>
-      <c r="B46" s="134">
+      <c r="B54" s="133">
         <v>41592</v>
       </c>
-      <c r="C46" s="135" t="s">
+      <c r="C54" s="134" t="s">
         <v>164</v>
       </c>
-      <c r="D46" s="122">
+      <c r="D54" s="121">
         <v>947</v>
       </c>
-      <c r="E46" s="122">
+      <c r="E54" s="121">
         <v>12376</v>
       </c>
-      <c r="F46" s="122">
+      <c r="F54" s="121">
         <v>6139</v>
       </c>
-      <c r="G46" s="129">
-        <f t="shared" ref="G46:G62" si="1">SUM(H46:H46)</f>
+      <c r="G54" s="128">
+        <f t="shared" ref="G54:G70" si="1">SUM(H54:H54)</f>
         <v>4000</v>
       </c>
-      <c r="H46" s="149">
+      <c r="H54" s="146">
         <v>4000</v>
       </c>
-      <c r="I46" s="123" t="s">
-        <v>209</v>
-      </c>
-      <c r="J46" s="147" t="s">
+      <c r="I54" s="122" t="s">
+        <v>206</v>
+      </c>
+      <c r="J54" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="K46" s="147" t="s">
+      <c r="K54" s="144" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="130">
+    <row r="55" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="129">
         <v>34</v>
       </c>
-      <c r="B47" s="134">
+      <c r="B55" s="133">
         <v>41612</v>
       </c>
-      <c r="C47" s="137" t="s">
+      <c r="C55" s="136" t="s">
         <v>163</v>
       </c>
-      <c r="D47" s="122">
+      <c r="D55" s="121">
         <v>2142</v>
       </c>
-      <c r="E47" s="122">
+      <c r="E55" s="121">
         <v>13347</v>
       </c>
-      <c r="F47" s="122">
+      <c r="F55" s="121">
         <v>6918</v>
       </c>
-      <c r="G47" s="129">
+      <c r="G55" s="128">
         <f t="shared" si="1"/>
         <v>4500</v>
       </c>
-      <c r="H47" s="149">
+      <c r="H55" s="146">
         <v>4500</v>
       </c>
-      <c r="I47" s="123" t="s">
-        <v>224</v>
-      </c>
-      <c r="J47" s="147" t="s">
+      <c r="I55" s="122" t="s">
+        <v>221</v>
+      </c>
+      <c r="J55" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="K47" s="147" t="s">
+      <c r="K55" s="144" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="122">
+    <row r="56" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="121">
         <v>35</v>
       </c>
-      <c r="B48" s="134">
+      <c r="B56" s="133">
         <v>41635</v>
       </c>
-      <c r="C48" s="135" t="s">
+      <c r="C56" s="134" t="s">
         <v>164</v>
       </c>
-      <c r="D48" s="122">
+      <c r="D56" s="121">
         <v>1093</v>
       </c>
-      <c r="E48" s="122">
+      <c r="E56" s="121">
         <v>14676</v>
       </c>
-      <c r="F48" s="122">
+      <c r="F56" s="121">
         <v>7775</v>
       </c>
-      <c r="G48" s="129">
+      <c r="G56" s="128">
         <f t="shared" si="1"/>
         <v>6566.67</v>
       </c>
-      <c r="H48" s="149">
+      <c r="H56" s="146">
         <v>6566.67</v>
       </c>
-      <c r="I48" s="123" t="s">
-        <v>214</v>
-      </c>
-      <c r="J48" s="147" t="s">
+      <c r="I56" s="122" t="s">
+        <v>211</v>
+      </c>
+      <c r="J56" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="K48" s="147" t="s">
+      <c r="K56" s="144" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="122">
+    <row r="57" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="121">
         <v>36</v>
       </c>
-      <c r="B49" s="134">
+      <c r="B57" s="133">
         <v>41635</v>
       </c>
-      <c r="C49" s="135" t="s">
+      <c r="C57" s="134" t="s">
         <v>164</v>
       </c>
-      <c r="D49" s="122">
+      <c r="D57" s="121">
         <v>7776</v>
       </c>
-      <c r="E49" s="122">
+      <c r="E57" s="121">
         <v>14669</v>
       </c>
-      <c r="F49" s="122">
+      <c r="F57" s="121">
         <v>7776</v>
       </c>
-      <c r="G49" s="129">
+      <c r="G57" s="128">
         <f t="shared" si="1"/>
         <v>8854.1</v>
       </c>
-      <c r="H49" s="149">
+      <c r="H57" s="146">
         <v>8854.1</v>
       </c>
-      <c r="I49" s="123" t="s">
-        <v>215</v>
-      </c>
-      <c r="J49" s="147" t="s">
+      <c r="I57" s="122" t="s">
+        <v>212</v>
+      </c>
+      <c r="J57" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="K49" s="147" t="s">
+      <c r="K57" s="144" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="130">
+    <row r="58" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="129">
         <v>37</v>
       </c>
-      <c r="B50" s="134">
+      <c r="B58" s="133">
         <v>41635</v>
       </c>
-      <c r="C50" s="135" t="s">
+      <c r="C58" s="134" t="s">
         <v>164</v>
       </c>
-      <c r="D50" s="122">
+      <c r="D58" s="121">
         <v>7776</v>
       </c>
-      <c r="E50" s="122">
+      <c r="E58" s="121">
         <v>14670</v>
       </c>
-      <c r="F50" s="122">
+      <c r="F58" s="121">
         <v>7776</v>
       </c>
-      <c r="G50" s="129">
+      <c r="G58" s="128">
         <f t="shared" si="1"/>
         <v>247</v>
       </c>
-      <c r="H50" s="149">
+      <c r="H58" s="146">
         <v>247</v>
       </c>
-      <c r="I50" s="123" t="s">
+      <c r="I58" s="122" t="s">
         <v>174</v>
       </c>
-      <c r="J50" s="147" t="s">
+      <c r="J58" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="K50" s="147" t="s">
+      <c r="K58" s="144" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="122">
+    <row r="59" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="121">
         <v>38</v>
       </c>
-      <c r="B51" s="134">
+      <c r="B59" s="133">
         <v>41635</v>
       </c>
-      <c r="C51" s="135" t="s">
+      <c r="C59" s="134" t="s">
         <v>164</v>
       </c>
-      <c r="D51" s="122">
+      <c r="D59" s="121">
         <v>7776</v>
       </c>
-      <c r="E51" s="122">
+      <c r="E59" s="121">
         <v>14671</v>
       </c>
-      <c r="F51" s="122">
+      <c r="F59" s="121">
         <v>7776</v>
       </c>
-      <c r="G51" s="129">
+      <c r="G59" s="128">
         <f t="shared" si="1"/>
         <v>456.67</v>
       </c>
-      <c r="H51" s="149">
+      <c r="H59" s="146">
         <v>456.67</v>
       </c>
-      <c r="I51" s="123" t="s">
-        <v>216</v>
-      </c>
-      <c r="J51" s="147" t="s">
+      <c r="I59" s="122" t="s">
+        <v>213</v>
+      </c>
+      <c r="J59" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="K51" s="147" t="s">
+      <c r="K59" s="144" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="122">
+    <row r="60" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="121">
         <v>39</v>
       </c>
-      <c r="B52" s="134">
+      <c r="B60" s="133">
         <v>41635</v>
       </c>
-      <c r="C52" s="135" t="s">
+      <c r="C60" s="134" t="s">
         <v>164</v>
       </c>
-      <c r="D52" s="122">
+      <c r="D60" s="121">
         <v>7776</v>
       </c>
-      <c r="E52" s="122">
+      <c r="E60" s="121">
         <v>14672</v>
       </c>
-      <c r="F52" s="122">
+      <c r="F60" s="121">
         <v>7776</v>
       </c>
-      <c r="G52" s="129">
+      <c r="G60" s="128">
         <f t="shared" si="1"/>
         <v>891</v>
       </c>
-      <c r="H52" s="149">
+      <c r="H60" s="146">
         <v>891</v>
       </c>
-      <c r="I52" s="123" t="s">
+      <c r="I60" s="122" t="s">
         <v>175</v>
       </c>
-      <c r="J52" s="147" t="s">
+      <c r="J60" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="K52" s="147" t="s">
+      <c r="K60" s="144" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="130">
+    <row r="61" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="129">
         <v>40</v>
       </c>
-      <c r="B53" s="134">
+      <c r="B61" s="133">
         <v>41635</v>
       </c>
-      <c r="C53" s="135" t="s">
+      <c r="C61" s="134" t="s">
         <v>164</v>
       </c>
-      <c r="D53" s="122">
+      <c r="D61" s="121">
         <v>7776</v>
       </c>
-      <c r="E53" s="122">
+      <c r="E61" s="121">
         <v>14673</v>
       </c>
-      <c r="F53" s="122">
+      <c r="F61" s="121">
         <v>7776</v>
       </c>
-      <c r="G53" s="129">
+      <c r="G61" s="128">
         <f t="shared" si="1"/>
         <v>1014.4</v>
       </c>
-      <c r="H53" s="149">
+      <c r="H61" s="146">
         <v>1014.4</v>
       </c>
-      <c r="I53" s="123" t="s">
-        <v>211</v>
-      </c>
-      <c r="J53" s="147" t="s">
+      <c r="I61" s="122" t="s">
+        <v>208</v>
+      </c>
+      <c r="J61" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="K53" s="147" t="s">
+      <c r="K61" s="144" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="122">
+    <row r="62" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="121">
         <v>41</v>
       </c>
-      <c r="B54" s="134">
+      <c r="B62" s="133">
         <v>41627</v>
       </c>
-      <c r="C54" s="135" t="s">
+      <c r="C62" s="134" t="s">
         <v>185</v>
       </c>
-      <c r="D54" s="137" t="s">
+      <c r="D62" s="136" t="s">
         <v>186</v>
       </c>
-      <c r="E54" s="122">
+      <c r="E62" s="121">
         <v>14203</v>
       </c>
-      <c r="F54" s="122">
+      <c r="F62" s="121">
         <v>8013</v>
       </c>
-      <c r="G54" s="129">
+      <c r="G62" s="128">
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="H54" s="149">
+      <c r="H62" s="146">
         <v>140</v>
       </c>
-      <c r="I54" s="123" t="s">
-        <v>217</v>
-      </c>
-      <c r="J54" s="147" t="s">
+      <c r="I62" s="122" t="s">
+        <v>214</v>
+      </c>
+      <c r="J62" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="K54" s="147" t="s">
+      <c r="K62" s="144" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="122">
+    <row r="63" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="121">
         <v>42</v>
       </c>
-      <c r="B55" s="134">
+      <c r="B63" s="133">
         <v>41627</v>
       </c>
-      <c r="C55" s="135" t="s">
+      <c r="C63" s="134" t="s">
         <v>185</v>
       </c>
-      <c r="D55" s="137" t="s">
+      <c r="D63" s="136" t="s">
         <v>186</v>
       </c>
-      <c r="E55" s="122">
+      <c r="E63" s="121">
         <v>14202</v>
       </c>
-      <c r="F55" s="122">
+      <c r="F63" s="121">
         <v>8014</v>
       </c>
-      <c r="G55" s="129">
+      <c r="G63" s="128">
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="H55" s="149">
+      <c r="H63" s="146">
         <v>140</v>
       </c>
-      <c r="I55" s="123" t="s">
-        <v>218</v>
-      </c>
-      <c r="J55" s="147" t="s">
+      <c r="I63" s="122" t="s">
+        <v>215</v>
+      </c>
+      <c r="J63" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="K55" s="147" t="s">
+      <c r="K63" s="144" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="130">
+    <row r="64" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="129">
         <v>43</v>
       </c>
-      <c r="B56" s="134">
+      <c r="B64" s="133">
         <v>41627</v>
       </c>
-      <c r="C56" s="135" t="s">
+      <c r="C64" s="134" t="s">
         <v>185</v>
       </c>
-      <c r="D56" s="137" t="s">
+      <c r="D64" s="136" t="s">
         <v>186</v>
       </c>
-      <c r="E56" s="122">
+      <c r="E64" s="121">
         <v>14201</v>
       </c>
-      <c r="F56" s="122">
+      <c r="F64" s="121">
         <v>8015</v>
       </c>
-      <c r="G56" s="129">
+      <c r="G64" s="128">
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="H56" s="149">
+      <c r="H64" s="146">
         <v>140</v>
       </c>
-      <c r="I56" s="123" t="s">
-        <v>219</v>
-      </c>
-      <c r="J56" s="147" t="s">
+      <c r="I64" s="122" t="s">
+        <v>216</v>
+      </c>
+      <c r="J64" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="K56" s="147" t="s">
+      <c r="K64" s="144" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="122">
+    <row r="65" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="121">
         <v>44</v>
       </c>
-      <c r="B57" s="134">
+      <c r="B65" s="133">
         <v>41628</v>
       </c>
-      <c r="C57" s="135" t="s">
+      <c r="C65" s="134" t="s">
         <v>185</v>
       </c>
-      <c r="D57" s="137" t="s">
+      <c r="D65" s="136" t="s">
         <v>186</v>
       </c>
-      <c r="E57" s="122">
+      <c r="E65" s="121">
         <v>14689</v>
       </c>
-      <c r="F57" s="122">
+      <c r="F65" s="121">
         <v>8144</v>
       </c>
-      <c r="G57" s="129">
+      <c r="G65" s="128">
         <f t="shared" si="1"/>
         <v>540</v>
       </c>
-      <c r="H57" s="149">
+      <c r="H65" s="146">
         <v>540</v>
       </c>
-      <c r="I57" s="123" t="s">
-        <v>220</v>
-      </c>
-      <c r="J57" s="147" t="s">
+      <c r="I65" s="122" t="s">
+        <v>217</v>
+      </c>
+      <c r="J65" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="K57" s="147" t="s">
+      <c r="K65" s="144" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="122">
+    <row r="66" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="121">
         <v>45</v>
       </c>
-      <c r="B58" s="134">
+      <c r="B66" s="133">
         <v>41628</v>
       </c>
-      <c r="C58" s="135" t="s">
+      <c r="C66" s="134" t="s">
         <v>185</v>
       </c>
-      <c r="D58" s="137" t="s">
+      <c r="D66" s="136" t="s">
         <v>186</v>
       </c>
-      <c r="E58" s="122">
+      <c r="E66" s="121">
         <v>14374</v>
       </c>
-      <c r="F58" s="122">
+      <c r="F66" s="121">
         <v>8150</v>
       </c>
-      <c r="G58" s="129">
+      <c r="G66" s="128">
         <f t="shared" si="1"/>
         <v>420</v>
       </c>
-      <c r="H58" s="149">
+      <c r="H66" s="146">
         <v>420</v>
       </c>
-      <c r="I58" s="123" t="s">
-        <v>221</v>
-      </c>
-      <c r="J58" s="147" t="s">
+      <c r="I66" s="122" t="s">
+        <v>218</v>
+      </c>
+      <c r="J66" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="K58" s="147" t="s">
+      <c r="K66" s="144" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="130">
+    <row r="67" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="129">
         <v>46</v>
       </c>
-      <c r="B59" s="134">
+      <c r="B67" s="133">
         <v>41636</v>
       </c>
-      <c r="C59" s="135" t="s">
+      <c r="C67" s="134" t="s">
         <v>163</v>
       </c>
-      <c r="D59" s="122">
+      <c r="D67" s="121">
         <v>2856</v>
       </c>
-      <c r="E59" s="122">
+      <c r="E67" s="121">
         <v>361</v>
       </c>
-      <c r="F59" s="122">
+      <c r="F67" s="121">
         <v>8383</v>
       </c>
-      <c r="G59" s="129">
+      <c r="G67" s="128">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-      <c r="H59" s="149">
+      <c r="H67" s="146">
         <v>1800</v>
       </c>
-      <c r="I59" s="123" t="s">
-        <v>223</v>
-      </c>
-      <c r="J59" s="147" t="s">
+      <c r="I67" s="122" t="s">
+        <v>220</v>
+      </c>
+      <c r="J67" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="K59" s="147" t="s">
+      <c r="K67" s="144" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="122">
+    <row r="68" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="121">
         <v>47</v>
       </c>
-      <c r="B60" s="134">
+      <c r="B68" s="133">
         <v>41636</v>
       </c>
-      <c r="C60" s="135" t="s">
+      <c r="C68" s="134" t="s">
         <v>164</v>
       </c>
-      <c r="D60" s="122">
+      <c r="D68" s="121">
         <v>1177</v>
       </c>
-      <c r="E60" s="122">
+      <c r="E68" s="121">
         <v>14796</v>
       </c>
-      <c r="F60" s="122">
+      <c r="F68" s="121">
         <v>8425</v>
       </c>
-      <c r="G60" s="129">
+      <c r="G68" s="128">
         <f t="shared" si="1"/>
         <v>30206.49</v>
       </c>
-      <c r="H60" s="149">
+      <c r="H68" s="146">
         <v>30206.49</v>
       </c>
-      <c r="I60" s="123" t="s">
-        <v>214</v>
-      </c>
-      <c r="J60" s="147" t="s">
+      <c r="I68" s="122" t="s">
+        <v>211</v>
+      </c>
+      <c r="J68" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="K60" s="147" t="s">
+      <c r="K68" s="144" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="122">
+    <row r="69" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="121">
         <v>48</v>
       </c>
-      <c r="B61" s="134">
+      <c r="B69" s="133">
         <v>41638</v>
       </c>
-      <c r="C61" s="135" t="s">
+      <c r="C69" s="134" t="s">
         <v>164</v>
       </c>
-      <c r="D61" s="122">
+      <c r="D69" s="121">
         <v>1198</v>
       </c>
-      <c r="E61" s="122">
+      <c r="E69" s="121">
         <v>15062</v>
       </c>
-      <c r="F61" s="122">
+      <c r="F69" s="121">
         <v>8496</v>
       </c>
-      <c r="G61" s="129">
+      <c r="G69" s="128">
         <f t="shared" si="1"/>
         <v>142.91999999999999</v>
       </c>
-      <c r="H61" s="149">
+      <c r="H69" s="146">
         <v>142.91999999999999</v>
       </c>
-      <c r="I61" s="123" t="s">
-        <v>215</v>
-      </c>
-      <c r="J61" s="147" t="s">
+      <c r="I69" s="122" t="s">
+        <v>212</v>
+      </c>
+      <c r="J69" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="K61" s="147" t="s">
+      <c r="K69" s="144" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="138">
+    <row r="70" spans="1:11" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="129">
         <v>49</v>
       </c>
-      <c r="B62" s="139">
+      <c r="B70" s="137">
         <v>41638</v>
       </c>
-      <c r="C62" s="140" t="s">
+      <c r="C70" s="138" t="s">
         <v>164</v>
       </c>
-      <c r="D62" s="141">
+      <c r="D70" s="139">
         <v>1198</v>
       </c>
-      <c r="E62" s="141">
+      <c r="E70" s="139">
         <v>15067</v>
       </c>
-      <c r="F62" s="141">
+      <c r="F70" s="139">
         <v>8496</v>
       </c>
-      <c r="G62" s="142">
+      <c r="G70" s="140">
         <f t="shared" si="1"/>
         <v>17.329999999999998</v>
       </c>
-      <c r="H62" s="150">
+      <c r="H70" s="147">
         <v>17.329999999999998</v>
       </c>
-      <c r="I62" s="123" t="s">
+      <c r="I70" s="122" t="s">
         <v>175</v>
       </c>
-      <c r="J62" s="147" t="s">
+      <c r="J70" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="K62" s="147" t="s">
+      <c r="K70" s="144" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="172" t="s">
+    <row r="71" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="B63" s="173"/>
-      <c r="C63" s="173"/>
-      <c r="D63" s="173"/>
-      <c r="E63" s="173"/>
-      <c r="F63" s="174"/>
-      <c r="G63" s="143">
-        <f>SUM(G14:G62)</f>
+      <c r="B71" s="169"/>
+      <c r="C71" s="169"/>
+      <c r="D71" s="169"/>
+      <c r="E71" s="169"/>
+      <c r="F71" s="170"/>
+      <c r="G71" s="141">
+        <f>SUM(G13:G70)</f>
         <v>202601.46000000002</v>
       </c>
-      <c r="H63" s="144">
-        <f>SUM(H14:H62)</f>
+      <c r="H71" s="142">
+        <f>SUM(H13:H70)</f>
         <v>202601.46000000002</v>
       </c>
-      <c r="I63" s="151"/>
-    </row>
-    <row r="64" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G64" s="121"/>
-      <c r="H64" s="126"/>
+      <c r="I71" s="148"/>
+    </row>
+    <row r="72" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G72" s="120"/>
+      <c r="H72" s="125"/>
     </row>
   </sheetData>
-  <autoFilter ref="H13:I63"/>
-  <mergeCells count="9">
+  <mergeCells count="23">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:I27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:I26"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="D8:I8"/>
   </mergeCells>
   <pageMargins left="0.47244094488188981" right="0.47244094488188981" top="0.62992125984251968" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="56" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="60" max="16383" man="1"/>
+    <brk id="68" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -7716,21 +7872,21 @@
   <sheetData>
     <row r="1" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="171" t="s">
+      <c r="B2" s="149" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
-      <c r="I2" s="171"/>
-      <c r="J2" s="171"/>
-      <c r="K2" s="171"/>
-      <c r="L2" s="171"/>
-      <c r="M2" s="171"/>
-      <c r="N2" s="171"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="149"/>
     </row>
     <row r="3" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="30"/>
@@ -7748,21 +7904,21 @@
       <c r="N3" s="30"/>
     </row>
     <row r="4" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="171" t="s">
+      <c r="B4" s="149" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="171"/>
-      <c r="D4" s="171"/>
-      <c r="E4" s="171"/>
-      <c r="F4" s="171"/>
-      <c r="G4" s="171"/>
-      <c r="H4" s="171"/>
-      <c r="I4" s="171"/>
-      <c r="J4" s="171"/>
-      <c r="K4" s="171"/>
-      <c r="L4" s="171"/>
-      <c r="M4" s="171"/>
-      <c r="N4" s="171"/>
+      <c r="C4" s="149"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="149"/>
+      <c r="I4" s="149"/>
+      <c r="J4" s="149"/>
+      <c r="K4" s="149"/>
+      <c r="L4" s="149"/>
+      <c r="M4" s="149"/>
+      <c r="N4" s="149"/>
     </row>
     <row r="5" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="34"/>
@@ -7872,56 +8028,56 @@
       <c r="N9" s="55"/>
     </row>
     <row r="10" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="177" t="s">
+      <c r="B10" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="179" t="s">
+      <c r="C10" s="176" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="181" t="s">
+      <c r="D10" s="188" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="179" t="s">
+      <c r="E10" s="176" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="179" t="s">
+      <c r="F10" s="176" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="179" t="s">
+      <c r="G10" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="179" t="s">
+      <c r="H10" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="183" t="s">
+      <c r="I10" s="174" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="179" t="s">
+      <c r="J10" s="176" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="179" t="s">
+      <c r="K10" s="176" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="179" t="s">
+      <c r="L10" s="176" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="185" t="s">
+      <c r="M10" s="178" t="s">
         <v>38</v>
       </c>
-      <c r="N10" s="186"/>
+      <c r="N10" s="179"/>
     </row>
     <row r="11" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="178"/>
-      <c r="C11" s="180"/>
-      <c r="D11" s="182"/>
-      <c r="E11" s="180"/>
-      <c r="F11" s="180"/>
-      <c r="G11" s="180"/>
-      <c r="H11" s="180"/>
-      <c r="I11" s="184"/>
-      <c r="J11" s="180"/>
-      <c r="K11" s="180"/>
-      <c r="L11" s="180"/>
+      <c r="B11" s="187"/>
+      <c r="C11" s="177"/>
+      <c r="D11" s="189"/>
+      <c r="E11" s="177"/>
+      <c r="F11" s="177"/>
+      <c r="G11" s="177"/>
+      <c r="H11" s="177"/>
+      <c r="I11" s="175"/>
+      <c r="J11" s="177"/>
+      <c r="K11" s="177"/>
+      <c r="L11" s="177"/>
       <c r="M11" s="56" t="s">
         <v>39</v>
       </c>
@@ -8056,31 +8212,31 @@
       <c r="N17" s="81"/>
     </row>
     <row r="18" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="187" t="s">
+      <c r="B18" s="180" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="188"/>
-      <c r="D18" s="188"/>
-      <c r="E18" s="188"/>
-      <c r="F18" s="188"/>
-      <c r="G18" s="188"/>
-      <c r="H18" s="189"/>
+      <c r="C18" s="181"/>
+      <c r="D18" s="181"/>
+      <c r="E18" s="181"/>
+      <c r="F18" s="181"/>
+      <c r="G18" s="181"/>
+      <c r="H18" s="182"/>
       <c r="I18" s="82">
         <f>SUM(I12:I17)</f>
         <v>3780</v>
       </c>
-      <c r="J18" s="190"/>
-      <c r="K18" s="191"/>
-      <c r="L18" s="191"/>
-      <c r="M18" s="191"/>
-      <c r="N18" s="192"/>
+      <c r="J18" s="183"/>
+      <c r="K18" s="184"/>
+      <c r="L18" s="184"/>
+      <c r="M18" s="184"/>
+      <c r="N18" s="185"/>
     </row>
     <row r="19" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M20" s="199" t="s">
+      <c r="M20" s="173" t="s">
         <v>27</v>
       </c>
-      <c r="N20" s="199"/>
+      <c r="N20" s="173"/>
     </row>
     <row r="21" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M21" s="83"/>
@@ -8102,21 +8258,21 @@
       <c r="N22" s="84"/>
     </row>
     <row r="23" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="171" t="s">
+      <c r="B23" s="149" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="171"/>
-      <c r="D23" s="171"/>
-      <c r="E23" s="171"/>
-      <c r="F23" s="171"/>
-      <c r="G23" s="171"/>
-      <c r="H23" s="171"/>
-      <c r="I23" s="171"/>
-      <c r="J23" s="171"/>
-      <c r="K23" s="171"/>
-      <c r="L23" s="171"/>
-      <c r="M23" s="171"/>
-      <c r="N23" s="171"/>
+      <c r="C23" s="149"/>
+      <c r="D23" s="149"/>
+      <c r="E23" s="149"/>
+      <c r="F23" s="149"/>
+      <c r="G23" s="149"/>
+      <c r="H23" s="149"/>
+      <c r="I23" s="149"/>
+      <c r="J23" s="149"/>
+      <c r="K23" s="149"/>
+      <c r="L23" s="149"/>
+      <c r="M23" s="149"/>
+      <c r="N23" s="149"/>
     </row>
     <row r="24" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="30"/>
@@ -8134,21 +8290,21 @@
       <c r="N24" s="30"/>
     </row>
     <row r="25" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="171" t="s">
+      <c r="B25" s="149" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="171"/>
-      <c r="D25" s="171"/>
-      <c r="E25" s="171"/>
-      <c r="F25" s="171"/>
-      <c r="G25" s="171"/>
-      <c r="H25" s="171"/>
-      <c r="I25" s="171"/>
-      <c r="J25" s="171"/>
-      <c r="K25" s="171"/>
-      <c r="L25" s="171"/>
-      <c r="M25" s="171"/>
-      <c r="N25" s="171"/>
+      <c r="C25" s="149"/>
+      <c r="D25" s="149"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="149"/>
+      <c r="K25" s="149"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="149"/>
+      <c r="N25" s="149"/>
     </row>
     <row r="26" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="30"/>
@@ -8258,56 +8414,56 @@
       <c r="N30" s="55"/>
     </row>
     <row r="31" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="177" t="s">
+      <c r="B31" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="179" t="s">
+      <c r="C31" s="176" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="181" t="s">
+      <c r="D31" s="188" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="179" t="s">
+      <c r="E31" s="176" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="179" t="s">
+      <c r="F31" s="176" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="179" t="s">
+      <c r="G31" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="H31" s="179" t="s">
+      <c r="H31" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="I31" s="183" t="s">
+      <c r="I31" s="174" t="s">
         <v>12</v>
       </c>
-      <c r="J31" s="179" t="s">
+      <c r="J31" s="176" t="s">
         <v>35</v>
       </c>
-      <c r="K31" s="179" t="s">
+      <c r="K31" s="176" t="s">
         <v>36</v>
       </c>
-      <c r="L31" s="179" t="s">
+      <c r="L31" s="176" t="s">
         <v>37</v>
       </c>
-      <c r="M31" s="185" t="s">
+      <c r="M31" s="178" t="s">
         <v>38</v>
       </c>
-      <c r="N31" s="186"/>
+      <c r="N31" s="179"/>
     </row>
     <row r="32" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="178"/>
-      <c r="C32" s="180"/>
-      <c r="D32" s="182"/>
-      <c r="E32" s="180"/>
-      <c r="F32" s="180"/>
-      <c r="G32" s="180"/>
-      <c r="H32" s="180"/>
-      <c r="I32" s="184"/>
-      <c r="J32" s="180"/>
-      <c r="K32" s="180"/>
-      <c r="L32" s="180"/>
+      <c r="B32" s="187"/>
+      <c r="C32" s="177"/>
+      <c r="D32" s="189"/>
+      <c r="E32" s="177"/>
+      <c r="F32" s="177"/>
+      <c r="G32" s="177"/>
+      <c r="H32" s="177"/>
+      <c r="I32" s="175"/>
+      <c r="J32" s="177"/>
+      <c r="K32" s="177"/>
+      <c r="L32" s="177"/>
       <c r="M32" s="56" t="s">
         <v>39</v>
       </c>
@@ -8401,31 +8557,31 @@
       <c r="N37" s="81"/>
     </row>
     <row r="38" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="193" t="s">
+      <c r="B38" s="190" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="194"/>
-      <c r="D38" s="194"/>
-      <c r="E38" s="194"/>
-      <c r="F38" s="194"/>
-      <c r="G38" s="194"/>
-      <c r="H38" s="195"/>
+      <c r="C38" s="191"/>
+      <c r="D38" s="191"/>
+      <c r="E38" s="191"/>
+      <c r="F38" s="191"/>
+      <c r="G38" s="191"/>
+      <c r="H38" s="192"/>
       <c r="I38" s="86">
         <f>SUM(I33:I37)</f>
         <v>0</v>
       </c>
-      <c r="J38" s="196"/>
-      <c r="K38" s="197"/>
-      <c r="L38" s="197"/>
-      <c r="M38" s="197"/>
-      <c r="N38" s="198"/>
+      <c r="J38" s="193"/>
+      <c r="K38" s="194"/>
+      <c r="L38" s="194"/>
+      <c r="M38" s="194"/>
+      <c r="N38" s="195"/>
     </row>
     <row r="39" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M40" s="199" t="s">
+      <c r="M40" s="173" t="s">
         <v>27</v>
       </c>
-      <c r="N40" s="199"/>
+      <c r="N40" s="173"/>
     </row>
     <row r="41" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M41" s="83"/>
@@ -8447,21 +8603,21 @@
       <c r="N42" s="84"/>
     </row>
     <row r="43" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="171" t="s">
+      <c r="B43" s="149" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="171"/>
-      <c r="D43" s="171"/>
-      <c r="E43" s="171"/>
-      <c r="F43" s="171"/>
-      <c r="G43" s="171"/>
-      <c r="H43" s="171"/>
-      <c r="I43" s="171"/>
-      <c r="J43" s="171"/>
-      <c r="K43" s="171"/>
-      <c r="L43" s="171"/>
-      <c r="M43" s="171"/>
-      <c r="N43" s="171"/>
+      <c r="C43" s="149"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="149"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="149"/>
+      <c r="N43" s="149"/>
     </row>
     <row r="44" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="30"/>
@@ -8479,21 +8635,21 @@
       <c r="N44" s="30"/>
     </row>
     <row r="45" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="171" t="s">
+      <c r="B45" s="149" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="171"/>
-      <c r="D45" s="171"/>
-      <c r="E45" s="171"/>
-      <c r="F45" s="171"/>
-      <c r="G45" s="171"/>
-      <c r="H45" s="171"/>
-      <c r="I45" s="171"/>
-      <c r="J45" s="171"/>
-      <c r="K45" s="171"/>
-      <c r="L45" s="171"/>
-      <c r="M45" s="171"/>
-      <c r="N45" s="171"/>
+      <c r="C45" s="149"/>
+      <c r="D45" s="149"/>
+      <c r="E45" s="149"/>
+      <c r="F45" s="149"/>
+      <c r="G45" s="149"/>
+      <c r="H45" s="149"/>
+      <c r="I45" s="149"/>
+      <c r="J45" s="149"/>
+      <c r="K45" s="149"/>
+      <c r="L45" s="149"/>
+      <c r="M45" s="149"/>
+      <c r="N45" s="149"/>
     </row>
     <row r="46" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="30"/>
@@ -8603,56 +8759,56 @@
       <c r="N50" s="55"/>
     </row>
     <row r="51" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="177" t="s">
+      <c r="B51" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="179" t="s">
+      <c r="C51" s="176" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="181" t="s">
+      <c r="D51" s="188" t="s">
         <v>32</v>
       </c>
-      <c r="E51" s="179" t="s">
+      <c r="E51" s="176" t="s">
         <v>33</v>
       </c>
-      <c r="F51" s="179" t="s">
+      <c r="F51" s="176" t="s">
         <v>34</v>
       </c>
-      <c r="G51" s="179" t="s">
+      <c r="G51" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="H51" s="179" t="s">
+      <c r="H51" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="I51" s="183" t="s">
+      <c r="I51" s="174" t="s">
         <v>12</v>
       </c>
-      <c r="J51" s="179" t="s">
+      <c r="J51" s="176" t="s">
         <v>35</v>
       </c>
-      <c r="K51" s="179" t="s">
+      <c r="K51" s="176" t="s">
         <v>36</v>
       </c>
-      <c r="L51" s="179" t="s">
+      <c r="L51" s="176" t="s">
         <v>37</v>
       </c>
-      <c r="M51" s="185" t="s">
+      <c r="M51" s="178" t="s">
         <v>38</v>
       </c>
-      <c r="N51" s="186"/>
+      <c r="N51" s="179"/>
     </row>
     <row r="52" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="178"/>
-      <c r="C52" s="180"/>
-      <c r="D52" s="182"/>
-      <c r="E52" s="180"/>
-      <c r="F52" s="180"/>
-      <c r="G52" s="180"/>
-      <c r="H52" s="180"/>
-      <c r="I52" s="184"/>
-      <c r="J52" s="180"/>
-      <c r="K52" s="180"/>
-      <c r="L52" s="180"/>
+      <c r="B52" s="187"/>
+      <c r="C52" s="177"/>
+      <c r="D52" s="189"/>
+      <c r="E52" s="177"/>
+      <c r="F52" s="177"/>
+      <c r="G52" s="177"/>
+      <c r="H52" s="177"/>
+      <c r="I52" s="175"/>
+      <c r="J52" s="177"/>
+      <c r="K52" s="177"/>
+      <c r="L52" s="177"/>
       <c r="M52" s="56" t="s">
         <v>39</v>
       </c>
@@ -8729,31 +8885,31 @@
       <c r="N56" s="81"/>
     </row>
     <row r="57" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="193" t="s">
+      <c r="B57" s="190" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="194"/>
-      <c r="D57" s="194"/>
-      <c r="E57" s="194"/>
-      <c r="F57" s="194"/>
-      <c r="G57" s="194"/>
-      <c r="H57" s="195"/>
+      <c r="C57" s="191"/>
+      <c r="D57" s="191"/>
+      <c r="E57" s="191"/>
+      <c r="F57" s="191"/>
+      <c r="G57" s="191"/>
+      <c r="H57" s="192"/>
       <c r="I57" s="86">
         <f>SUM(I53:I56)</f>
         <v>0</v>
       </c>
-      <c r="J57" s="196"/>
-      <c r="K57" s="197"/>
-      <c r="L57" s="197"/>
-      <c r="M57" s="197"/>
-      <c r="N57" s="198"/>
+      <c r="J57" s="193"/>
+      <c r="K57" s="194"/>
+      <c r="L57" s="194"/>
+      <c r="M57" s="194"/>
+      <c r="N57" s="195"/>
     </row>
     <row r="58" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M59" s="199" t="s">
+      <c r="M59" s="173" t="s">
         <v>27</v>
       </c>
-      <c r="N59" s="199"/>
+      <c r="N59" s="173"/>
     </row>
     <row r="60" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M60" s="83"/>
@@ -8783,21 +8939,21 @@
       <c r="N63" s="84"/>
     </row>
     <row r="64" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="171" t="s">
+      <c r="B64" s="149" t="s">
         <v>26</v>
       </c>
-      <c r="C64" s="171"/>
-      <c r="D64" s="171"/>
-      <c r="E64" s="171"/>
-      <c r="F64" s="171"/>
-      <c r="G64" s="171"/>
-      <c r="H64" s="171"/>
-      <c r="I64" s="171"/>
-      <c r="J64" s="171"/>
-      <c r="K64" s="171"/>
-      <c r="L64" s="171"/>
-      <c r="M64" s="171"/>
-      <c r="N64" s="171"/>
+      <c r="C64" s="149"/>
+      <c r="D64" s="149"/>
+      <c r="E64" s="149"/>
+      <c r="F64" s="149"/>
+      <c r="G64" s="149"/>
+      <c r="H64" s="149"/>
+      <c r="I64" s="149"/>
+      <c r="J64" s="149"/>
+      <c r="K64" s="149"/>
+      <c r="L64" s="149"/>
+      <c r="M64" s="149"/>
+      <c r="N64" s="149"/>
     </row>
     <row r="65" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="30"/>
@@ -8815,21 +8971,21 @@
       <c r="N65" s="30"/>
     </row>
     <row r="66" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="171" t="s">
+      <c r="B66" s="149" t="s">
         <v>28</v>
       </c>
-      <c r="C66" s="171"/>
-      <c r="D66" s="171"/>
-      <c r="E66" s="171"/>
-      <c r="F66" s="171"/>
-      <c r="G66" s="171"/>
-      <c r="H66" s="171"/>
-      <c r="I66" s="171"/>
-      <c r="J66" s="171"/>
-      <c r="K66" s="171"/>
-      <c r="L66" s="171"/>
-      <c r="M66" s="171"/>
-      <c r="N66" s="171"/>
+      <c r="C66" s="149"/>
+      <c r="D66" s="149"/>
+      <c r="E66" s="149"/>
+      <c r="F66" s="149"/>
+      <c r="G66" s="149"/>
+      <c r="H66" s="149"/>
+      <c r="I66" s="149"/>
+      <c r="J66" s="149"/>
+      <c r="K66" s="149"/>
+      <c r="L66" s="149"/>
+      <c r="M66" s="149"/>
+      <c r="N66" s="149"/>
     </row>
     <row r="67" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="30"/>
@@ -8939,56 +9095,56 @@
       <c r="N71" s="55"/>
     </row>
     <row r="72" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="177" t="s">
+      <c r="B72" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="C72" s="179" t="s">
+      <c r="C72" s="176" t="s">
         <v>31</v>
       </c>
-      <c r="D72" s="181" t="s">
+      <c r="D72" s="188" t="s">
         <v>32</v>
       </c>
-      <c r="E72" s="179" t="s">
+      <c r="E72" s="176" t="s">
         <v>33</v>
       </c>
-      <c r="F72" s="179" t="s">
+      <c r="F72" s="176" t="s">
         <v>34</v>
       </c>
-      <c r="G72" s="179" t="s">
+      <c r="G72" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="H72" s="179" t="s">
+      <c r="H72" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="I72" s="183" t="s">
+      <c r="I72" s="174" t="s">
         <v>12</v>
       </c>
-      <c r="J72" s="179" t="s">
+      <c r="J72" s="176" t="s">
         <v>35</v>
       </c>
-      <c r="K72" s="179" t="s">
+      <c r="K72" s="176" t="s">
         <v>36</v>
       </c>
-      <c r="L72" s="179" t="s">
+      <c r="L72" s="176" t="s">
         <v>37</v>
       </c>
-      <c r="M72" s="185" t="s">
+      <c r="M72" s="178" t="s">
         <v>38</v>
       </c>
-      <c r="N72" s="186"/>
+      <c r="N72" s="179"/>
     </row>
     <row r="73" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="178"/>
-      <c r="C73" s="180"/>
-      <c r="D73" s="182"/>
-      <c r="E73" s="180"/>
-      <c r="F73" s="180"/>
-      <c r="G73" s="180"/>
-      <c r="H73" s="180"/>
-      <c r="I73" s="184"/>
-      <c r="J73" s="180"/>
-      <c r="K73" s="180"/>
-      <c r="L73" s="180"/>
+      <c r="B73" s="187"/>
+      <c r="C73" s="177"/>
+      <c r="D73" s="189"/>
+      <c r="E73" s="177"/>
+      <c r="F73" s="177"/>
+      <c r="G73" s="177"/>
+      <c r="H73" s="177"/>
+      <c r="I73" s="175"/>
+      <c r="J73" s="177"/>
+      <c r="K73" s="177"/>
+      <c r="L73" s="177"/>
       <c r="M73" s="56" t="s">
         <v>39</v>
       </c>
@@ -9048,31 +9204,31 @@
       <c r="N76" s="81"/>
     </row>
     <row r="77" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="187" t="s">
+      <c r="B77" s="180" t="s">
         <v>19</v>
       </c>
-      <c r="C77" s="188"/>
-      <c r="D77" s="188"/>
-      <c r="E77" s="188"/>
-      <c r="F77" s="188"/>
-      <c r="G77" s="188"/>
-      <c r="H77" s="189"/>
+      <c r="C77" s="181"/>
+      <c r="D77" s="181"/>
+      <c r="E77" s="181"/>
+      <c r="F77" s="181"/>
+      <c r="G77" s="181"/>
+      <c r="H77" s="182"/>
       <c r="I77" s="82">
         <f>SUM(I74:I76)</f>
         <v>0</v>
       </c>
-      <c r="J77" s="190"/>
-      <c r="K77" s="191"/>
-      <c r="L77" s="191"/>
-      <c r="M77" s="191"/>
-      <c r="N77" s="192"/>
+      <c r="J77" s="183"/>
+      <c r="K77" s="184"/>
+      <c r="L77" s="184"/>
+      <c r="M77" s="184"/>
+      <c r="N77" s="185"/>
     </row>
     <row r="78" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="79" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M79" s="199" t="s">
+      <c r="M79" s="173" t="s">
         <v>27</v>
       </c>
-      <c r="N79" s="199"/>
+      <c r="N79" s="173"/>
     </row>
     <row r="80" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M80" s="83"/>
@@ -9117,12 +9273,52 @@
     <row r="86" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="M79:N79"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="L72:L73"/>
-    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B4:N4"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="J38:N38"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="B23:N23"/>
+    <mergeCell ref="B25:N25"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="J57:N57"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="B43:N43"/>
+    <mergeCell ref="B45:N45"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
     <mergeCell ref="J51:J52"/>
     <mergeCell ref="K51:K52"/>
     <mergeCell ref="L51:L52"/>
@@ -9139,52 +9335,12 @@
     <mergeCell ref="F72:F73"/>
     <mergeCell ref="G72:G73"/>
     <mergeCell ref="H72:H73"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="J57:N57"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="B43:N43"/>
-    <mergeCell ref="B45:N45"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="J38:N38"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="B23:N23"/>
-    <mergeCell ref="B25:N25"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B4:N4"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M79:N79"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="M72:N72"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
@@ -9225,21 +9381,21 @@
   <sheetData>
     <row r="1" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="171" t="s">
+      <c r="B2" s="149" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
-      <c r="I2" s="171"/>
-      <c r="J2" s="171"/>
-      <c r="K2" s="171"/>
-      <c r="L2" s="171"/>
-      <c r="M2" s="171"/>
-      <c r="N2" s="171"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="149"/>
     </row>
     <row r="3" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="89"/>
@@ -9349,56 +9505,56 @@
       <c r="N8" s="55"/>
     </row>
     <row r="9" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="177" t="s">
+      <c r="B9" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="179" t="s">
+      <c r="C9" s="176" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="181" t="s">
+      <c r="D9" s="188" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="179" t="s">
+      <c r="E9" s="176" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="179" t="s">
+      <c r="F9" s="176" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="179" t="s">
+      <c r="G9" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="179" t="s">
+      <c r="H9" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="183" t="s">
+      <c r="I9" s="174" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="179" t="s">
+      <c r="J9" s="176" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="179" t="s">
+      <c r="K9" s="176" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="179" t="s">
+      <c r="L9" s="176" t="s">
         <v>37</v>
       </c>
-      <c r="M9" s="185" t="s">
+      <c r="M9" s="178" t="s">
         <v>38</v>
       </c>
-      <c r="N9" s="186"/>
+      <c r="N9" s="179"/>
     </row>
     <row r="10" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="178"/>
-      <c r="C10" s="180"/>
-      <c r="D10" s="182"/>
-      <c r="E10" s="180"/>
-      <c r="F10" s="180"/>
-      <c r="G10" s="180"/>
-      <c r="H10" s="180"/>
-      <c r="I10" s="184"/>
-      <c r="J10" s="180"/>
-      <c r="K10" s="180"/>
-      <c r="L10" s="180"/>
+      <c r="B10" s="187"/>
+      <c r="C10" s="177"/>
+      <c r="D10" s="189"/>
+      <c r="E10" s="177"/>
+      <c r="F10" s="177"/>
+      <c r="G10" s="177"/>
+      <c r="H10" s="177"/>
+      <c r="I10" s="175"/>
+      <c r="J10" s="177"/>
+      <c r="K10" s="177"/>
+      <c r="L10" s="177"/>
       <c r="M10" s="56" t="s">
         <v>39</v>
       </c>
@@ -9827,44 +9983,44 @@
       <c r="N30" s="81"/>
     </row>
     <row r="31" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="187" t="s">
+      <c r="B31" s="180" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="188"/>
-      <c r="D31" s="188"/>
-      <c r="E31" s="188"/>
-      <c r="F31" s="188"/>
-      <c r="G31" s="188"/>
-      <c r="H31" s="189"/>
+      <c r="C31" s="181"/>
+      <c r="D31" s="181"/>
+      <c r="E31" s="181"/>
+      <c r="F31" s="181"/>
+      <c r="G31" s="181"/>
+      <c r="H31" s="182"/>
       <c r="I31" s="82">
         <f>SUM(I11:I30)</f>
         <v>1769.9</v>
       </c>
-      <c r="J31" s="190"/>
-      <c r="K31" s="191"/>
-      <c r="L31" s="191"/>
-      <c r="M31" s="191"/>
-      <c r="N31" s="192"/>
+      <c r="J31" s="183"/>
+      <c r="K31" s="184"/>
+      <c r="L31" s="184"/>
+      <c r="M31" s="184"/>
+      <c r="N31" s="185"/>
     </row>
     <row r="32" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="171" t="s">
+      <c r="B35" s="149" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="171"/>
-      <c r="D35" s="171"/>
-      <c r="E35" s="171"/>
-      <c r="F35" s="171"/>
-      <c r="G35" s="171"/>
-      <c r="H35" s="171"/>
-      <c r="I35" s="171"/>
-      <c r="J35" s="171"/>
-      <c r="K35" s="171"/>
-      <c r="L35" s="171"/>
-      <c r="M35" s="171"/>
-      <c r="N35" s="171"/>
+      <c r="C35" s="149"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="149"/>
+      <c r="N35" s="149"/>
     </row>
     <row r="36" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="89"/>
@@ -9974,56 +10130,56 @@
       <c r="N41" s="55"/>
     </row>
     <row r="42" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="177" t="s">
+      <c r="B42" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="179" t="s">
+      <c r="C42" s="176" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="181" t="s">
+      <c r="D42" s="188" t="s">
         <v>32</v>
       </c>
-      <c r="E42" s="179" t="s">
+      <c r="E42" s="176" t="s">
         <v>33</v>
       </c>
-      <c r="F42" s="179" t="s">
+      <c r="F42" s="176" t="s">
         <v>34</v>
       </c>
-      <c r="G42" s="179" t="s">
+      <c r="G42" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="H42" s="179" t="s">
+      <c r="H42" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="I42" s="183" t="s">
+      <c r="I42" s="174" t="s">
         <v>12</v>
       </c>
-      <c r="J42" s="179" t="s">
+      <c r="J42" s="176" t="s">
         <v>35</v>
       </c>
-      <c r="K42" s="179" t="s">
+      <c r="K42" s="176" t="s">
         <v>36</v>
       </c>
-      <c r="L42" s="179" t="s">
+      <c r="L42" s="176" t="s">
         <v>37</v>
       </c>
-      <c r="M42" s="185" t="s">
+      <c r="M42" s="178" t="s">
         <v>38</v>
       </c>
-      <c r="N42" s="186"/>
+      <c r="N42" s="179"/>
     </row>
     <row r="43" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="178"/>
-      <c r="C43" s="180"/>
-      <c r="D43" s="182"/>
-      <c r="E43" s="180"/>
-      <c r="F43" s="180"/>
-      <c r="G43" s="180"/>
-      <c r="H43" s="180"/>
-      <c r="I43" s="184"/>
-      <c r="J43" s="180"/>
-      <c r="K43" s="180"/>
-      <c r="L43" s="180"/>
+      <c r="B43" s="187"/>
+      <c r="C43" s="177"/>
+      <c r="D43" s="189"/>
+      <c r="E43" s="177"/>
+      <c r="F43" s="177"/>
+      <c r="G43" s="177"/>
+      <c r="H43" s="177"/>
+      <c r="I43" s="175"/>
+      <c r="J43" s="177"/>
+      <c r="K43" s="177"/>
+      <c r="L43" s="177"/>
       <c r="M43" s="56" t="s">
         <v>39</v>
       </c>
@@ -10032,24 +10188,24 @@
       </c>
     </row>
     <row r="44" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="193" t="s">
+      <c r="B44" s="190" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="194"/>
-      <c r="D44" s="194"/>
-      <c r="E44" s="194"/>
-      <c r="F44" s="194"/>
-      <c r="G44" s="194"/>
-      <c r="H44" s="195"/>
+      <c r="C44" s="191"/>
+      <c r="D44" s="191"/>
+      <c r="E44" s="191"/>
+      <c r="F44" s="191"/>
+      <c r="G44" s="191"/>
+      <c r="H44" s="192"/>
       <c r="I44" s="86">
         <f>I31</f>
         <v>1769.9</v>
       </c>
-      <c r="J44" s="196"/>
-      <c r="K44" s="197"/>
-      <c r="L44" s="197"/>
-      <c r="M44" s="197"/>
-      <c r="N44" s="198"/>
+      <c r="J44" s="193"/>
+      <c r="K44" s="194"/>
+      <c r="L44" s="194"/>
+      <c r="M44" s="194"/>
+      <c r="N44" s="195"/>
     </row>
     <row r="45" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="58" t="s">
@@ -10413,44 +10569,44 @@
       </c>
     </row>
     <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="187" t="s">
+      <c r="B63" s="180" t="s">
         <v>86</v>
       </c>
-      <c r="C63" s="188"/>
-      <c r="D63" s="188"/>
-      <c r="E63" s="188"/>
-      <c r="F63" s="188"/>
-      <c r="G63" s="188"/>
-      <c r="H63" s="189"/>
+      <c r="C63" s="181"/>
+      <c r="D63" s="181"/>
+      <c r="E63" s="181"/>
+      <c r="F63" s="181"/>
+      <c r="G63" s="181"/>
+      <c r="H63" s="182"/>
       <c r="I63" s="82">
         <f>SUM(I44:I62)</f>
         <v>1769.9</v>
       </c>
-      <c r="J63" s="190"/>
-      <c r="K63" s="191"/>
-      <c r="L63" s="191"/>
-      <c r="M63" s="191"/>
-      <c r="N63" s="192"/>
+      <c r="J63" s="183"/>
+      <c r="K63" s="184"/>
+      <c r="L63" s="184"/>
+      <c r="M63" s="184"/>
+      <c r="N63" s="185"/>
     </row>
     <row r="64" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="171" t="s">
+      <c r="B67" s="149" t="s">
         <v>59</v>
       </c>
-      <c r="C67" s="171"/>
-      <c r="D67" s="171"/>
-      <c r="E67" s="171"/>
-      <c r="F67" s="171"/>
-      <c r="G67" s="171"/>
-      <c r="H67" s="171"/>
-      <c r="I67" s="171"/>
-      <c r="J67" s="171"/>
-      <c r="K67" s="171"/>
-      <c r="L67" s="171"/>
-      <c r="M67" s="171"/>
-      <c r="N67" s="171"/>
+      <c r="C67" s="149"/>
+      <c r="D67" s="149"/>
+      <c r="E67" s="149"/>
+      <c r="F67" s="149"/>
+      <c r="G67" s="149"/>
+      <c r="H67" s="149"/>
+      <c r="I67" s="149"/>
+      <c r="J67" s="149"/>
+      <c r="K67" s="149"/>
+      <c r="L67" s="149"/>
+      <c r="M67" s="149"/>
+      <c r="N67" s="149"/>
     </row>
     <row r="68" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="89"/>
@@ -10560,56 +10716,56 @@
       <c r="N73" s="55"/>
     </row>
     <row r="74" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="177" t="s">
+      <c r="B74" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="C74" s="179" t="s">
+      <c r="C74" s="176" t="s">
         <v>31</v>
       </c>
-      <c r="D74" s="181" t="s">
+      <c r="D74" s="188" t="s">
         <v>32</v>
       </c>
-      <c r="E74" s="179" t="s">
+      <c r="E74" s="176" t="s">
         <v>33</v>
       </c>
-      <c r="F74" s="179" t="s">
+      <c r="F74" s="176" t="s">
         <v>34</v>
       </c>
-      <c r="G74" s="179" t="s">
+      <c r="G74" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="H74" s="179" t="s">
+      <c r="H74" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="I74" s="183" t="s">
+      <c r="I74" s="174" t="s">
         <v>12</v>
       </c>
-      <c r="J74" s="179" t="s">
+      <c r="J74" s="176" t="s">
         <v>35</v>
       </c>
-      <c r="K74" s="179" t="s">
+      <c r="K74" s="176" t="s">
         <v>36</v>
       </c>
-      <c r="L74" s="179" t="s">
+      <c r="L74" s="176" t="s">
         <v>37</v>
       </c>
-      <c r="M74" s="185" t="s">
+      <c r="M74" s="178" t="s">
         <v>38</v>
       </c>
-      <c r="N74" s="186"/>
+      <c r="N74" s="179"/>
     </row>
     <row r="75" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="178"/>
-      <c r="C75" s="180"/>
-      <c r="D75" s="182"/>
-      <c r="E75" s="180"/>
-      <c r="F75" s="180"/>
-      <c r="G75" s="180"/>
-      <c r="H75" s="180"/>
-      <c r="I75" s="184"/>
-      <c r="J75" s="180"/>
-      <c r="K75" s="180"/>
-      <c r="L75" s="180"/>
+      <c r="B75" s="187"/>
+      <c r="C75" s="177"/>
+      <c r="D75" s="189"/>
+      <c r="E75" s="177"/>
+      <c r="F75" s="177"/>
+      <c r="G75" s="177"/>
+      <c r="H75" s="177"/>
+      <c r="I75" s="175"/>
+      <c r="J75" s="177"/>
+      <c r="K75" s="177"/>
+      <c r="L75" s="177"/>
       <c r="M75" s="56" t="s">
         <v>39</v>
       </c>
@@ -10618,24 +10774,24 @@
       </c>
     </row>
     <row r="76" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="193" t="s">
+      <c r="B76" s="190" t="s">
         <v>87</v>
       </c>
-      <c r="C76" s="194"/>
-      <c r="D76" s="194"/>
-      <c r="E76" s="194"/>
-      <c r="F76" s="194"/>
-      <c r="G76" s="194"/>
-      <c r="H76" s="195"/>
+      <c r="C76" s="191"/>
+      <c r="D76" s="191"/>
+      <c r="E76" s="191"/>
+      <c r="F76" s="191"/>
+      <c r="G76" s="191"/>
+      <c r="H76" s="192"/>
       <c r="I76" s="86">
         <f>I63</f>
         <v>1769.9</v>
       </c>
-      <c r="J76" s="196"/>
-      <c r="K76" s="197"/>
-      <c r="L76" s="197"/>
-      <c r="M76" s="197"/>
-      <c r="N76" s="198"/>
+      <c r="J76" s="193"/>
+      <c r="K76" s="194"/>
+      <c r="L76" s="194"/>
+      <c r="M76" s="194"/>
+      <c r="N76" s="195"/>
     </row>
     <row r="77" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="58" t="s">
@@ -11078,44 +11234,44 @@
       </c>
     </row>
     <row r="97" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="187" t="s">
+      <c r="B97" s="180" t="s">
         <v>86</v>
       </c>
-      <c r="C97" s="188"/>
-      <c r="D97" s="188"/>
-      <c r="E97" s="188"/>
-      <c r="F97" s="188"/>
-      <c r="G97" s="188"/>
-      <c r="H97" s="189"/>
+      <c r="C97" s="181"/>
+      <c r="D97" s="181"/>
+      <c r="E97" s="181"/>
+      <c r="F97" s="181"/>
+      <c r="G97" s="181"/>
+      <c r="H97" s="182"/>
       <c r="I97" s="82">
         <f>SUM(I76:I96)</f>
         <v>1769.9</v>
       </c>
-      <c r="J97" s="190"/>
-      <c r="K97" s="191"/>
-      <c r="L97" s="191"/>
-      <c r="M97" s="191"/>
-      <c r="N97" s="192"/>
+      <c r="J97" s="183"/>
+      <c r="K97" s="184"/>
+      <c r="L97" s="184"/>
+      <c r="M97" s="184"/>
+      <c r="N97" s="185"/>
     </row>
     <row r="98" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="99" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="100" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="101" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="171" t="s">
+      <c r="B101" s="149" t="s">
         <v>59</v>
       </c>
-      <c r="C101" s="171"/>
-      <c r="D101" s="171"/>
-      <c r="E101" s="171"/>
-      <c r="F101" s="171"/>
-      <c r="G101" s="171"/>
-      <c r="H101" s="171"/>
-      <c r="I101" s="171"/>
-      <c r="J101" s="171"/>
-      <c r="K101" s="171"/>
-      <c r="L101" s="171"/>
-      <c r="M101" s="171"/>
-      <c r="N101" s="171"/>
+      <c r="C101" s="149"/>
+      <c r="D101" s="149"/>
+      <c r="E101" s="149"/>
+      <c r="F101" s="149"/>
+      <c r="G101" s="149"/>
+      <c r="H101" s="149"/>
+      <c r="I101" s="149"/>
+      <c r="J101" s="149"/>
+      <c r="K101" s="149"/>
+      <c r="L101" s="149"/>
+      <c r="M101" s="149"/>
+      <c r="N101" s="149"/>
     </row>
     <row r="102" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="89"/>
@@ -11225,56 +11381,56 @@
       <c r="N107" s="55"/>
     </row>
     <row r="108" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="177" t="s">
+      <c r="B108" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="C108" s="179" t="s">
+      <c r="C108" s="176" t="s">
         <v>31</v>
       </c>
-      <c r="D108" s="181" t="s">
+      <c r="D108" s="188" t="s">
         <v>32</v>
       </c>
-      <c r="E108" s="179" t="s">
+      <c r="E108" s="176" t="s">
         <v>33</v>
       </c>
-      <c r="F108" s="179" t="s">
+      <c r="F108" s="176" t="s">
         <v>34</v>
       </c>
-      <c r="G108" s="179" t="s">
+      <c r="G108" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="H108" s="179" t="s">
+      <c r="H108" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="I108" s="183" t="s">
+      <c r="I108" s="174" t="s">
         <v>12</v>
       </c>
-      <c r="J108" s="179" t="s">
+      <c r="J108" s="176" t="s">
         <v>35</v>
       </c>
-      <c r="K108" s="179" t="s">
+      <c r="K108" s="176" t="s">
         <v>36</v>
       </c>
-      <c r="L108" s="179" t="s">
+      <c r="L108" s="176" t="s">
         <v>37</v>
       </c>
-      <c r="M108" s="185" t="s">
+      <c r="M108" s="178" t="s">
         <v>38</v>
       </c>
-      <c r="N108" s="186"/>
+      <c r="N108" s="179"/>
     </row>
     <row r="109" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="178"/>
-      <c r="C109" s="180"/>
-      <c r="D109" s="182"/>
-      <c r="E109" s="180"/>
-      <c r="F109" s="180"/>
-      <c r="G109" s="180"/>
-      <c r="H109" s="180"/>
-      <c r="I109" s="184"/>
-      <c r="J109" s="180"/>
-      <c r="K109" s="180"/>
-      <c r="L109" s="180"/>
+      <c r="B109" s="187"/>
+      <c r="C109" s="177"/>
+      <c r="D109" s="189"/>
+      <c r="E109" s="177"/>
+      <c r="F109" s="177"/>
+      <c r="G109" s="177"/>
+      <c r="H109" s="177"/>
+      <c r="I109" s="175"/>
+      <c r="J109" s="177"/>
+      <c r="K109" s="177"/>
+      <c r="L109" s="177"/>
       <c r="M109" s="56" t="s">
         <v>39</v>
       </c>
@@ -11283,24 +11439,24 @@
       </c>
     </row>
     <row r="110" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="193" t="s">
+      <c r="B110" s="190" t="s">
         <v>87</v>
       </c>
-      <c r="C110" s="194"/>
-      <c r="D110" s="194"/>
-      <c r="E110" s="194"/>
-      <c r="F110" s="194"/>
-      <c r="G110" s="194"/>
-      <c r="H110" s="195"/>
+      <c r="C110" s="191"/>
+      <c r="D110" s="191"/>
+      <c r="E110" s="191"/>
+      <c r="F110" s="191"/>
+      <c r="G110" s="191"/>
+      <c r="H110" s="192"/>
       <c r="I110" s="86">
         <f>I97</f>
         <v>1769.9</v>
       </c>
-      <c r="J110" s="196"/>
-      <c r="K110" s="197"/>
-      <c r="L110" s="197"/>
-      <c r="M110" s="197"/>
-      <c r="N110" s="198"/>
+      <c r="J110" s="193"/>
+      <c r="K110" s="194"/>
+      <c r="L110" s="194"/>
+      <c r="M110" s="194"/>
+      <c r="N110" s="195"/>
     </row>
     <row r="111" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="58" t="s">
@@ -11670,44 +11826,44 @@
       <c r="N129" s="81"/>
     </row>
     <row r="130" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="187" t="s">
+      <c r="B130" s="180" t="s">
         <v>86</v>
       </c>
-      <c r="C130" s="188"/>
-      <c r="D130" s="188"/>
-      <c r="E130" s="188"/>
-      <c r="F130" s="188"/>
-      <c r="G130" s="188"/>
-      <c r="H130" s="189"/>
+      <c r="C130" s="181"/>
+      <c r="D130" s="181"/>
+      <c r="E130" s="181"/>
+      <c r="F130" s="181"/>
+      <c r="G130" s="181"/>
+      <c r="H130" s="182"/>
       <c r="I130" s="82">
         <f>SUM(I110:I129)</f>
         <v>1769.9</v>
       </c>
-      <c r="J130" s="190"/>
-      <c r="K130" s="191"/>
-      <c r="L130" s="191"/>
-      <c r="M130" s="191"/>
-      <c r="N130" s="192"/>
+      <c r="J130" s="183"/>
+      <c r="K130" s="184"/>
+      <c r="L130" s="184"/>
+      <c r="M130" s="184"/>
+      <c r="N130" s="185"/>
     </row>
     <row r="131" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="132" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="133" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="134" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="171" t="s">
+      <c r="B134" s="149" t="s">
         <v>59</v>
       </c>
-      <c r="C134" s="171"/>
-      <c r="D134" s="171"/>
-      <c r="E134" s="171"/>
-      <c r="F134" s="171"/>
-      <c r="G134" s="171"/>
-      <c r="H134" s="171"/>
-      <c r="I134" s="171"/>
-      <c r="J134" s="171"/>
-      <c r="K134" s="171"/>
-      <c r="L134" s="171"/>
-      <c r="M134" s="171"/>
-      <c r="N134" s="171"/>
+      <c r="C134" s="149"/>
+      <c r="D134" s="149"/>
+      <c r="E134" s="149"/>
+      <c r="F134" s="149"/>
+      <c r="G134" s="149"/>
+      <c r="H134" s="149"/>
+      <c r="I134" s="149"/>
+      <c r="J134" s="149"/>
+      <c r="K134" s="149"/>
+      <c r="L134" s="149"/>
+      <c r="M134" s="149"/>
+      <c r="N134" s="149"/>
     </row>
     <row r="135" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="89"/>
@@ -11817,56 +11973,56 @@
       <c r="N140" s="55"/>
     </row>
     <row r="141" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="177" t="s">
+      <c r="B141" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="C141" s="179" t="s">
+      <c r="C141" s="176" t="s">
         <v>31</v>
       </c>
-      <c r="D141" s="181" t="s">
+      <c r="D141" s="188" t="s">
         <v>32</v>
       </c>
-      <c r="E141" s="179" t="s">
+      <c r="E141" s="176" t="s">
         <v>33</v>
       </c>
-      <c r="F141" s="179" t="s">
+      <c r="F141" s="176" t="s">
         <v>34</v>
       </c>
-      <c r="G141" s="179" t="s">
+      <c r="G141" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="H141" s="179" t="s">
+      <c r="H141" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="I141" s="183" t="s">
+      <c r="I141" s="174" t="s">
         <v>12</v>
       </c>
-      <c r="J141" s="179" t="s">
+      <c r="J141" s="176" t="s">
         <v>35</v>
       </c>
-      <c r="K141" s="179" t="s">
+      <c r="K141" s="176" t="s">
         <v>36</v>
       </c>
-      <c r="L141" s="179" t="s">
+      <c r="L141" s="176" t="s">
         <v>37</v>
       </c>
-      <c r="M141" s="185" t="s">
+      <c r="M141" s="178" t="s">
         <v>38</v>
       </c>
-      <c r="N141" s="186"/>
+      <c r="N141" s="179"/>
     </row>
     <row r="142" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="178"/>
-      <c r="C142" s="180"/>
-      <c r="D142" s="182"/>
-      <c r="E142" s="180"/>
-      <c r="F142" s="180"/>
-      <c r="G142" s="180"/>
-      <c r="H142" s="180"/>
-      <c r="I142" s="184"/>
-      <c r="J142" s="180"/>
-      <c r="K142" s="180"/>
-      <c r="L142" s="180"/>
+      <c r="B142" s="187"/>
+      <c r="C142" s="177"/>
+      <c r="D142" s="189"/>
+      <c r="E142" s="177"/>
+      <c r="F142" s="177"/>
+      <c r="G142" s="177"/>
+      <c r="H142" s="177"/>
+      <c r="I142" s="175"/>
+      <c r="J142" s="177"/>
+      <c r="K142" s="177"/>
+      <c r="L142" s="177"/>
       <c r="M142" s="56" t="s">
         <v>39</v>
       </c>
@@ -11875,24 +12031,24 @@
       </c>
     </row>
     <row r="143" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="193" t="s">
+      <c r="B143" s="190" t="s">
         <v>87</v>
       </c>
-      <c r="C143" s="194"/>
-      <c r="D143" s="194"/>
-      <c r="E143" s="194"/>
-      <c r="F143" s="194"/>
-      <c r="G143" s="194"/>
-      <c r="H143" s="195"/>
+      <c r="C143" s="191"/>
+      <c r="D143" s="191"/>
+      <c r="E143" s="191"/>
+      <c r="F143" s="191"/>
+      <c r="G143" s="191"/>
+      <c r="H143" s="192"/>
       <c r="I143" s="86">
         <f>I130</f>
         <v>1769.9</v>
       </c>
-      <c r="J143" s="196"/>
-      <c r="K143" s="197"/>
-      <c r="L143" s="197"/>
-      <c r="M143" s="197"/>
-      <c r="N143" s="198"/>
+      <c r="J143" s="193"/>
+      <c r="K143" s="194"/>
+      <c r="L143" s="194"/>
+      <c r="M143" s="194"/>
+      <c r="N143" s="195"/>
     </row>
     <row r="144" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="58" t="s">
@@ -12218,44 +12374,44 @@
       <c r="N160" s="81"/>
     </row>
     <row r="161" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="187" t="s">
+      <c r="B161" s="180" t="s">
         <v>86</v>
       </c>
-      <c r="C161" s="188"/>
-      <c r="D161" s="188"/>
-      <c r="E161" s="188"/>
-      <c r="F161" s="188"/>
-      <c r="G161" s="188"/>
-      <c r="H161" s="189"/>
+      <c r="C161" s="181"/>
+      <c r="D161" s="181"/>
+      <c r="E161" s="181"/>
+      <c r="F161" s="181"/>
+      <c r="G161" s="181"/>
+      <c r="H161" s="182"/>
       <c r="I161" s="82">
         <f>SUM(I143:I160)</f>
         <v>1769.9</v>
       </c>
-      <c r="J161" s="190"/>
-      <c r="K161" s="191"/>
-      <c r="L161" s="191"/>
-      <c r="M161" s="191"/>
-      <c r="N161" s="192"/>
+      <c r="J161" s="183"/>
+      <c r="K161" s="184"/>
+      <c r="L161" s="184"/>
+      <c r="M161" s="184"/>
+      <c r="N161" s="185"/>
     </row>
     <row r="162" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="163" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="164" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="165" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="171" t="s">
+      <c r="B165" s="149" t="s">
         <v>59</v>
       </c>
-      <c r="C165" s="171"/>
-      <c r="D165" s="171"/>
-      <c r="E165" s="171"/>
-      <c r="F165" s="171"/>
-      <c r="G165" s="171"/>
-      <c r="H165" s="171"/>
-      <c r="I165" s="171"/>
-      <c r="J165" s="171"/>
-      <c r="K165" s="171"/>
-      <c r="L165" s="171"/>
-      <c r="M165" s="171"/>
-      <c r="N165" s="171"/>
+      <c r="C165" s="149"/>
+      <c r="D165" s="149"/>
+      <c r="E165" s="149"/>
+      <c r="F165" s="149"/>
+      <c r="G165" s="149"/>
+      <c r="H165" s="149"/>
+      <c r="I165" s="149"/>
+      <c r="J165" s="149"/>
+      <c r="K165" s="149"/>
+      <c r="L165" s="149"/>
+      <c r="M165" s="149"/>
+      <c r="N165" s="149"/>
     </row>
     <row r="166" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="89"/>
@@ -12365,56 +12521,56 @@
       <c r="N171" s="55"/>
     </row>
     <row r="172" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="177" t="s">
+      <c r="B172" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="C172" s="179" t="s">
+      <c r="C172" s="176" t="s">
         <v>31</v>
       </c>
-      <c r="D172" s="181" t="s">
+      <c r="D172" s="188" t="s">
         <v>32</v>
       </c>
-      <c r="E172" s="179" t="s">
+      <c r="E172" s="176" t="s">
         <v>33</v>
       </c>
-      <c r="F172" s="179" t="s">
+      <c r="F172" s="176" t="s">
         <v>34</v>
       </c>
-      <c r="G172" s="179" t="s">
+      <c r="G172" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="H172" s="179" t="s">
+      <c r="H172" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="I172" s="183" t="s">
+      <c r="I172" s="174" t="s">
         <v>12</v>
       </c>
-      <c r="J172" s="179" t="s">
+      <c r="J172" s="176" t="s">
         <v>35</v>
       </c>
-      <c r="K172" s="179" t="s">
+      <c r="K172" s="176" t="s">
         <v>36</v>
       </c>
-      <c r="L172" s="179" t="s">
+      <c r="L172" s="176" t="s">
         <v>37</v>
       </c>
-      <c r="M172" s="185" t="s">
+      <c r="M172" s="178" t="s">
         <v>38</v>
       </c>
-      <c r="N172" s="186"/>
+      <c r="N172" s="179"/>
     </row>
     <row r="173" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="178"/>
-      <c r="C173" s="180"/>
-      <c r="D173" s="182"/>
-      <c r="E173" s="180"/>
-      <c r="F173" s="180"/>
-      <c r="G173" s="180"/>
-      <c r="H173" s="180"/>
-      <c r="I173" s="184"/>
-      <c r="J173" s="180"/>
-      <c r="K173" s="180"/>
-      <c r="L173" s="180"/>
+      <c r="B173" s="187"/>
+      <c r="C173" s="177"/>
+      <c r="D173" s="189"/>
+      <c r="E173" s="177"/>
+      <c r="F173" s="177"/>
+      <c r="G173" s="177"/>
+      <c r="H173" s="177"/>
+      <c r="I173" s="175"/>
+      <c r="J173" s="177"/>
+      <c r="K173" s="177"/>
+      <c r="L173" s="177"/>
       <c r="M173" s="56" t="s">
         <v>39</v>
       </c>
@@ -12423,24 +12579,24 @@
       </c>
     </row>
     <row r="174" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="193" t="s">
+      <c r="B174" s="190" t="s">
         <v>87</v>
       </c>
-      <c r="C174" s="194"/>
-      <c r="D174" s="194"/>
-      <c r="E174" s="194"/>
-      <c r="F174" s="194"/>
-      <c r="G174" s="194"/>
-      <c r="H174" s="195"/>
+      <c r="C174" s="191"/>
+      <c r="D174" s="191"/>
+      <c r="E174" s="191"/>
+      <c r="F174" s="191"/>
+      <c r="G174" s="191"/>
+      <c r="H174" s="192"/>
       <c r="I174" s="86">
         <f>I161</f>
         <v>1769.9</v>
       </c>
-      <c r="J174" s="196"/>
-      <c r="K174" s="197"/>
-      <c r="L174" s="197"/>
-      <c r="M174" s="197"/>
-      <c r="N174" s="198"/>
+      <c r="J174" s="193"/>
+      <c r="K174" s="194"/>
+      <c r="L174" s="194"/>
+      <c r="M174" s="194"/>
+      <c r="N174" s="195"/>
     </row>
     <row r="175" spans="2:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="58" t="s">
@@ -12506,31 +12662,31 @@
       </c>
     </row>
     <row r="178" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="193" t="s">
+      <c r="B178" s="190" t="s">
         <v>19</v>
       </c>
-      <c r="C178" s="194"/>
-      <c r="D178" s="194"/>
-      <c r="E178" s="194"/>
-      <c r="F178" s="194"/>
-      <c r="G178" s="194"/>
-      <c r="H178" s="195"/>
+      <c r="C178" s="191"/>
+      <c r="D178" s="191"/>
+      <c r="E178" s="191"/>
+      <c r="F178" s="191"/>
+      <c r="G178" s="191"/>
+      <c r="H178" s="192"/>
       <c r="I178" s="86">
         <f>SUM(I174:I177)</f>
         <v>1769.9</v>
       </c>
-      <c r="J178" s="196"/>
-      <c r="K178" s="197"/>
-      <c r="L178" s="197"/>
-      <c r="M178" s="197"/>
-      <c r="N178" s="198"/>
+      <c r="J178" s="193"/>
+      <c r="K178" s="194"/>
+      <c r="L178" s="194"/>
+      <c r="M178" s="194"/>
+      <c r="N178" s="195"/>
     </row>
     <row r="179" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="180" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M180" s="199" t="s">
+      <c r="M180" s="173" t="s">
         <v>27</v>
       </c>
-      <c r="N180" s="199"/>
+      <c r="N180" s="173"/>
     </row>
     <row r="181" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="182" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12547,6 +12703,90 @@
     <row r="193" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="101">
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="B35:N35"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="J44:N44"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="J63:N63"/>
+    <mergeCell ref="B67:N67"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="B76:H76"/>
+    <mergeCell ref="J76:N76"/>
+    <mergeCell ref="B97:H97"/>
+    <mergeCell ref="J97:N97"/>
+    <mergeCell ref="B101:N101"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="H108:H109"/>
+    <mergeCell ref="I108:I109"/>
+    <mergeCell ref="J108:J109"/>
+    <mergeCell ref="K108:K109"/>
+    <mergeCell ref="L108:L109"/>
+    <mergeCell ref="M108:N108"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="B110:H110"/>
+    <mergeCell ref="J110:N110"/>
+    <mergeCell ref="B130:H130"/>
+    <mergeCell ref="J130:N130"/>
+    <mergeCell ref="B134:N134"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="M141:N141"/>
+    <mergeCell ref="B143:H143"/>
+    <mergeCell ref="J143:N143"/>
+    <mergeCell ref="B161:H161"/>
+    <mergeCell ref="J161:N161"/>
+    <mergeCell ref="B165:N165"/>
+    <mergeCell ref="G141:G142"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="J141:J142"/>
+    <mergeCell ref="K141:K142"/>
+    <mergeCell ref="L141:L142"/>
     <mergeCell ref="B174:H174"/>
     <mergeCell ref="J174:N174"/>
     <mergeCell ref="B178:H178"/>
@@ -12564,90 +12804,6 @@
     <mergeCell ref="E172:E173"/>
     <mergeCell ref="F172:F173"/>
     <mergeCell ref="G172:G173"/>
-    <mergeCell ref="B143:H143"/>
-    <mergeCell ref="J143:N143"/>
-    <mergeCell ref="B161:H161"/>
-    <mergeCell ref="J161:N161"/>
-    <mergeCell ref="B165:N165"/>
-    <mergeCell ref="G141:G142"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="I141:I142"/>
-    <mergeCell ref="J141:J142"/>
-    <mergeCell ref="K141:K142"/>
-    <mergeCell ref="L141:L142"/>
-    <mergeCell ref="B110:H110"/>
-    <mergeCell ref="J110:N110"/>
-    <mergeCell ref="B130:H130"/>
-    <mergeCell ref="J130:N130"/>
-    <mergeCell ref="B134:N134"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="E141:E142"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="M141:N141"/>
-    <mergeCell ref="H108:H109"/>
-    <mergeCell ref="I108:I109"/>
-    <mergeCell ref="J108:J109"/>
-    <mergeCell ref="K108:K109"/>
-    <mergeCell ref="L108:L109"/>
-    <mergeCell ref="M108:N108"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="G108:G109"/>
-    <mergeCell ref="B76:H76"/>
-    <mergeCell ref="J76:N76"/>
-    <mergeCell ref="B97:H97"/>
-    <mergeCell ref="J97:N97"/>
-    <mergeCell ref="B101:N101"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="K74:K75"/>
-    <mergeCell ref="L74:L75"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="J44:N44"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="J63:N63"/>
-    <mergeCell ref="B67:N67"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="B35:N35"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="56" orientation="landscape" r:id="rId1"/>
